--- a/testcases_excel/能力展示需实现自动化用例.xlsx
+++ b/testcases_excel/能力展示需实现自动化用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12420" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="规划表" sheetId="6" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="测试分析表" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">主流程全部用例!$A$1:$T$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">主流程全部用例!$A$1:$T$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">测试分析表!$A$2:$K$9</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="241">
   <si>
     <t>解析主流程思维导图</t>
   </si>
@@ -572,6 +572,135 @@
   </si>
   <si>
     <t>ST033</t>
+  </si>
+  <si>
+    <t>XX001</t>
+  </si>
+  <si>
+    <t>消息中心测试用例合集</t>
+  </si>
+  <si>
+    <t>互动消息列表验证未读新消息类型</t>
+  </si>
+  <si>
+    <t>A部门A1登录发布提问</t>
+  </si>
+  <si>
+    <t>A部门有评分权限用户B登录</t>
+  </si>
+  <si>
+    <t>B进入待我审核列表查看</t>
+  </si>
+  <si>
+    <t>B审核问题成功</t>
+  </si>
+  <si>
+    <t>B对该提问发布备选方案</t>
+  </si>
+  <si>
+    <t>A部门A1登录</t>
+  </si>
+  <si>
+    <t>A1查看互动消息列表</t>
+  </si>
+  <si>
+    <t>校验：qid为之前所提问题，isRead=0未读，msgTpye=0</t>
+  </si>
+  <si>
+    <t>XX002</t>
+  </si>
+  <si>
+    <t>B申请解决该问题</t>
+  </si>
+  <si>
+    <t>提问者A查看互动消息列表</t>
+  </si>
+  <si>
+    <t>校验：qid为之前所提问题，isRead=0未读，msgTpye=1</t>
+  </si>
+  <si>
+    <t>XX003</t>
+  </si>
+  <si>
+    <t>B申请解决提问</t>
+  </si>
+  <si>
+    <t>公司主管理员登陆后台</t>
+  </si>
+  <si>
+    <t>该提问申请解决被主管理员解除</t>
+  </si>
+  <si>
+    <t>校验：qid为之前所提问题，isRead=0未读，msgTpye=2</t>
+  </si>
+  <si>
+    <t>XX004</t>
+  </si>
+  <si>
+    <t>申请者B登录</t>
+  </si>
+  <si>
+    <t>B查看互动消息列表</t>
+  </si>
+  <si>
+    <t>校验：qid为之前所提问题，isRead=0未读，msgTpye=3</t>
+  </si>
+  <si>
+    <t>XX005</t>
+  </si>
+  <si>
+    <t>后台解决者C登陆</t>
+  </si>
+  <si>
+    <t>C上次解决报告解决该问题</t>
+  </si>
+  <si>
+    <t>校验：qid为之前所提问题，isRead=0未读，msgTpye=4</t>
+  </si>
+  <si>
+    <t>XX006</t>
+  </si>
+  <si>
+    <t>星数变动列表验证未读新消息类型</t>
+  </si>
+  <si>
+    <t>XX007</t>
+  </si>
+  <si>
+    <t>B进入问题详情页发布分析</t>
+  </si>
+  <si>
+    <t>有评分权限+职位高于B的用户C登录</t>
+  </si>
+  <si>
+    <t>C进入该备选方案详情</t>
+  </si>
+  <si>
+    <t>C对该方案评分</t>
+  </si>
+  <si>
+    <t>发布者B登录</t>
+  </si>
+  <si>
+    <t>B查看星数变动列表</t>
+  </si>
+  <si>
+    <t>XX008</t>
+  </si>
+  <si>
+    <t>C上次解决报告解决该问题，主导人为B，参与人为D</t>
+  </si>
+  <si>
+    <t>主导人B登录</t>
+  </si>
+  <si>
+    <t>XX009</t>
+  </si>
+  <si>
+    <t>参与者D登录</t>
+  </si>
+  <si>
+    <t>D查看星数变动列表</t>
   </si>
   <si>
     <t>模块</t>
@@ -622,9 +751,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -678,6 +807,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -708,6 +844,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -726,9 +900,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,58 +923,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,9 +951,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,7 +1015,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,43 +1093,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,13 +1129,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,43 +1165,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,37 +1189,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,6 +1394,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1295,168 +1435,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1575,6 +1704,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1824,7 +1968,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2082,68 +2226,68 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="23" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="43" customWidth="1"/>
-    <col min="2" max="2" width="23.6666666666667" style="43" customWidth="1"/>
-    <col min="3" max="3" width="82.8333333333333" style="43" customWidth="1"/>
-    <col min="4" max="4" width="10.8333333333333" style="43"/>
-    <col min="5" max="5" width="22.3333333333333" style="43" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="43"/>
+    <col min="1" max="1" width="12.5" style="48" customWidth="1"/>
+    <col min="2" max="2" width="23.6666666666667" style="48" customWidth="1"/>
+    <col min="3" max="3" width="82.8333333333333" style="48" customWidth="1"/>
+    <col min="4" max="4" width="10.8333333333333" style="48"/>
+    <col min="5" max="5" width="22.3333333333333" style="48" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="48"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="49"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="58" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2154,39 +2298,39 @@
       <c r="B6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="59" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="60"/>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="61" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="62"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="58"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="27" t="s">
@@ -2195,90 +2339,90 @@
       <c r="B9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="59" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="60"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
-    </row>
-    <row r="12" s="43" customFormat="1" customHeight="1" spans="1:5">
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+    </row>
+    <row r="12" s="48" customFormat="1" customHeight="1" spans="1:5">
       <c r="A12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-    </row>
-    <row r="13" s="43" customFormat="1" customHeight="1" spans="1:5">
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+    </row>
+    <row r="13" s="48" customFormat="1" customHeight="1" spans="1:5">
       <c r="A13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="70"/>
+      <c r="E16" s="75"/>
     </row>
     <row r="17" ht="43" customHeight="1" spans="1:5">
       <c r="A17" s="27">
@@ -2286,15 +2430,15 @@
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
     </row>
     <row r="18" ht="35" customHeight="1" spans="1:5">
       <c r="A18" s="27">
         <v>2</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
@@ -2326,14 +2470,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M47" sqref="M47"/>
+      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
@@ -2425,7 +2569,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
-      <c r="J2" s="40"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
@@ -2593,7 +2737,7 @@
       <c r="H7" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="46" t="s">
         <v>79</v>
       </c>
       <c r="J7" s="35" t="s">
@@ -2605,8 +2749,8 @@
       <c r="L7" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:12">
       <c r="A8" s="24" t="s">
@@ -2627,16 +2771,16 @@
       <c r="H8" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="46" t="s">
         <v>84</v>
       </c>
       <c r="K8" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="41"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" ht="53" customHeight="1" spans="1:15">
       <c r="A9" s="24" t="s">
@@ -2657,13 +2801,13 @@
       <c r="H9" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="46" t="s">
         <v>79</v>
       </c>
       <c r="J9" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="46" t="s">
         <v>86</v>
       </c>
       <c r="L9" s="35" t="s">
@@ -2698,13 +2842,13 @@
       <c r="H10" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="46" t="s">
         <v>79</v>
       </c>
       <c r="J10" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="46" t="s">
         <v>86</v>
       </c>
       <c r="L10" s="35" t="s">
@@ -2739,13 +2883,13 @@
       <c r="H11" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="46" t="s">
         <v>79</v>
       </c>
       <c r="J11" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="46" t="s">
         <v>81</v>
       </c>
       <c r="L11" s="35" t="s">
@@ -2785,13 +2929,13 @@
       <c r="K12" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="L12" s="46" t="s">
         <v>100</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="41"/>
+      <c r="N12" s="46"/>
     </row>
     <row r="13" ht="58" customHeight="1" spans="1:13">
       <c r="A13" s="24" t="s">
@@ -2821,7 +2965,7 @@
       <c r="K13" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="L13" s="41" t="s">
+      <c r="L13" s="46" t="s">
         <v>104</v>
       </c>
       <c r="M13" s="35" t="s">
@@ -2856,7 +3000,7 @@
       <c r="K14" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="41" t="s">
+      <c r="L14" s="46" t="s">
         <v>107</v>
       </c>
       <c r="M14" s="35" t="s">
@@ -2891,7 +3035,7 @@
       <c r="K15" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="41" t="s">
+      <c r="L15" s="46" t="s">
         <v>110</v>
       </c>
       <c r="M15" s="35" t="s">
@@ -2936,8 +3080,8 @@
       <c r="M16" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" ht="78" customHeight="1" spans="1:14">
       <c r="A17" s="24" t="s">
@@ -2964,13 +3108,13 @@
       <c r="J17" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="47" t="s">
         <v>118</v>
       </c>
       <c r="L17" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="M17" s="42" t="s">
+      <c r="M17" s="47" t="s">
         <v>116</v>
       </c>
       <c r="N17" s="33" t="s">
@@ -3002,19 +3146,19 @@
       <c r="J18" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="K18" s="47" t="s">
         <v>131</v>
       </c>
       <c r="L18" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="47" t="s">
         <v>126</v>
       </c>
       <c r="N18" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="O18" s="42"/>
+      <c r="O18" s="47"/>
     </row>
     <row r="19" ht="78" customHeight="1" spans="1:15">
       <c r="A19" s="24" t="s">
@@ -3041,19 +3185,19 @@
       <c r="J19" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="K19" s="42" t="s">
+      <c r="K19" s="47" t="s">
         <v>131</v>
       </c>
       <c r="L19" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="M19" s="47" t="s">
         <v>126</v>
       </c>
       <c r="N19" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="O19" s="42"/>
+      <c r="O19" s="47"/>
     </row>
     <row r="20" ht="78" customHeight="1" spans="1:16">
       <c r="A20" s="24" t="s">
@@ -3080,20 +3224,20 @@
       <c r="J20" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="42" t="s">
+      <c r="K20" s="47" t="s">
         <v>118</v>
       </c>
       <c r="L20" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="47" t="s">
         <v>116</v>
       </c>
       <c r="N20" s="33" t="s">
         <v>134</v>
       </c>
       <c r="O20" s="33"/>
-      <c r="P20" s="42"/>
+      <c r="P20" s="47"/>
     </row>
     <row r="21" ht="78" customHeight="1" spans="1:14">
       <c r="A21" s="24" t="s">
@@ -3129,7 +3273,7 @@
         <v>139</v>
       </c>
       <c r="M21" s="35"/>
-      <c r="N21" s="41"/>
+      <c r="N21" s="46"/>
     </row>
     <row r="22" ht="78" customHeight="1" spans="1:14">
       <c r="A22" s="24" t="s">
@@ -3159,13 +3303,13 @@
       <c r="K22" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="L22" s="41" t="s">
+      <c r="L22" s="46" t="s">
         <v>138</v>
       </c>
       <c r="M22" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="N22" s="41"/>
+      <c r="N22" s="46"/>
     </row>
     <row r="23" ht="78" customHeight="1" spans="1:14">
       <c r="A23" s="24" t="s">
@@ -3195,13 +3339,13 @@
       <c r="K23" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="46" t="s">
         <v>142</v>
       </c>
       <c r="M23" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="N23" s="41"/>
+      <c r="N23" s="46"/>
     </row>
     <row r="24" ht="78" customHeight="1" spans="1:14">
       <c r="A24" s="24" t="s">
@@ -3231,13 +3375,13 @@
       <c r="K24" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="41" t="s">
+      <c r="L24" s="46" t="s">
         <v>142</v>
       </c>
       <c r="M24" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="N24" s="41"/>
+      <c r="N24" s="46"/>
     </row>
     <row r="25" ht="78" customHeight="1" spans="1:15">
       <c r="A25" s="24" t="s">
@@ -3264,19 +3408,19 @@
       <c r="J25" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="41" t="s">
+      <c r="K25" s="46" t="s">
         <v>118</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="M25" s="41" t="s">
+      <c r="M25" s="46" t="s">
         <v>138</v>
       </c>
       <c r="N25" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="O25" s="42"/>
+      <c r="O25" s="47"/>
     </row>
     <row r="26" ht="78" customHeight="1" spans="1:15">
       <c r="A26" s="24" t="s">
@@ -3346,7 +3490,7 @@
       <c r="J27" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="K27" s="42" t="s">
+      <c r="K27" s="47" t="s">
         <v>118</v>
       </c>
       <c r="L27" s="33" t="s">
@@ -3364,7 +3508,7 @@
       <c r="P27" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="Q27" s="42"/>
+      <c r="Q27" s="47"/>
     </row>
     <row r="28" ht="78" customHeight="1" spans="1:17">
       <c r="A28" s="24" t="s">
@@ -3391,7 +3535,7 @@
       <c r="J28" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="K28" s="42" t="s">
+      <c r="K28" s="47" t="s">
         <v>131</v>
       </c>
       <c r="L28" s="33" t="s">
@@ -3409,7 +3553,7 @@
       <c r="P28" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="Q28" s="42"/>
+      <c r="Q28" s="47"/>
     </row>
     <row r="29" ht="78" customHeight="1" spans="1:17">
       <c r="A29" s="24" t="s">
@@ -3436,7 +3580,7 @@
       <c r="J29" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="42" t="s">
+      <c r="K29" s="47" t="s">
         <v>131</v>
       </c>
       <c r="L29" s="33" t="s">
@@ -3454,7 +3598,7 @@
       <c r="P29" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="Q29" s="42"/>
+      <c r="Q29" s="47"/>
     </row>
     <row r="30" ht="78" customHeight="1" spans="1:17">
       <c r="A30" s="24" t="s">
@@ -3481,7 +3625,7 @@
       <c r="J30" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="K30" s="42" t="s">
+      <c r="K30" s="47" t="s">
         <v>118</v>
       </c>
       <c r="L30" s="33" t="s">
@@ -3499,7 +3643,7 @@
       <c r="P30" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="Q30" s="42"/>
+      <c r="Q30" s="47"/>
     </row>
     <row r="31" ht="78" customHeight="1" spans="1:16">
       <c r="A31" s="24" t="s">
@@ -3534,10 +3678,10 @@
       <c r="L31" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="M31" s="41"/>
+      <c r="M31" s="46"/>
       <c r="N31" s="33"/>
       <c r="O31" s="33"/>
-      <c r="P31" s="42"/>
+      <c r="P31" s="47"/>
     </row>
     <row r="32" ht="78" customHeight="1" spans="1:16">
       <c r="A32" s="24" t="s">
@@ -3561,13 +3705,13 @@
       <c r="I32" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="J32" s="41" t="s">
+      <c r="J32" s="46" t="s">
         <v>118</v>
       </c>
       <c r="K32" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="L32" s="41" t="s">
+      <c r="L32" s="46" t="s">
         <v>116</v>
       </c>
       <c r="M32" s="35" t="s">
@@ -3575,7 +3719,7 @@
       </c>
       <c r="N32" s="33"/>
       <c r="O32" s="33"/>
-      <c r="P32" s="42"/>
+      <c r="P32" s="47"/>
     </row>
     <row r="33" ht="78" customHeight="1" spans="1:17">
       <c r="A33" s="24" t="s">
@@ -3602,13 +3746,13 @@
       <c r="J33" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="K33" s="41" t="s">
+      <c r="K33" s="46" t="s">
         <v>131</v>
       </c>
       <c r="L33" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="M33" s="41" t="s">
+      <c r="M33" s="46" t="s">
         <v>116</v>
       </c>
       <c r="N33" s="35" t="s">
@@ -3616,7 +3760,7 @@
       </c>
       <c r="O33" s="33"/>
       <c r="P33" s="33"/>
-      <c r="Q33" s="42"/>
+      <c r="Q33" s="47"/>
     </row>
     <row r="34" ht="78" customHeight="1" spans="1:17">
       <c r="A34" s="24" t="s">
@@ -3643,13 +3787,13 @@
       <c r="J34" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="K34" s="41" t="s">
+      <c r="K34" s="46" t="s">
         <v>131</v>
       </c>
       <c r="L34" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="M34" s="41" t="s">
+      <c r="M34" s="46" t="s">
         <v>126</v>
       </c>
       <c r="N34" s="35" t="s">
@@ -3657,7 +3801,7 @@
       </c>
       <c r="O34" s="33"/>
       <c r="P34" s="33"/>
-      <c r="Q34" s="42"/>
+      <c r="Q34" s="47"/>
     </row>
     <row r="35" ht="78" customHeight="1" spans="1:17">
       <c r="A35" s="24" t="s">
@@ -3684,13 +3828,13 @@
       <c r="J35" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="K35" s="41" t="s">
+      <c r="K35" s="46" t="s">
         <v>118</v>
       </c>
       <c r="L35" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="M35" s="41" t="s">
+      <c r="M35" s="46" t="s">
         <v>116</v>
       </c>
       <c r="N35" s="35" t="s">
@@ -3698,7 +3842,7 @@
       </c>
       <c r="O35" s="33"/>
       <c r="P35" s="33"/>
-      <c r="Q35" s="42"/>
+      <c r="Q35" s="47"/>
     </row>
     <row r="36" ht="78" customHeight="1" spans="1:17">
       <c r="A36" s="24" t="s">
@@ -3725,13 +3869,13 @@
       <c r="J36" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="K36" s="41" t="s">
+      <c r="K36" s="46" t="s">
         <v>131</v>
       </c>
       <c r="L36" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="M36" s="41" t="s">
+      <c r="M36" s="46" t="s">
         <v>126</v>
       </c>
       <c r="N36" s="35" t="s">
@@ -3739,7 +3883,7 @@
       </c>
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
-      <c r="Q36" s="42"/>
+      <c r="Q36" s="47"/>
     </row>
     <row r="37" ht="68" customHeight="1" spans="1:16">
       <c r="A37" s="24" t="s">
@@ -3771,11 +3915,11 @@
       <c r="K37" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="L37" s="42"/>
+      <c r="L37" s="47"/>
       <c r="M37" s="33"/>
       <c r="N37" s="33"/>
       <c r="O37" s="33"/>
-      <c r="P37" s="42"/>
+      <c r="P37" s="47"/>
     </row>
     <row r="38" ht="78" customHeight="1" spans="1:16">
       <c r="A38" s="24" t="s">
@@ -3802,7 +3946,7 @@
       <c r="J38" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="K38" s="42" t="s">
+      <c r="K38" s="47" t="s">
         <v>138</v>
       </c>
       <c r="L38" s="33" t="s">
@@ -3811,7 +3955,7 @@
       <c r="M38" s="33"/>
       <c r="N38" s="33"/>
       <c r="O38" s="33"/>
-      <c r="P38" s="42"/>
+      <c r="P38" s="47"/>
     </row>
     <row r="39" ht="78" customHeight="1" spans="1:16">
       <c r="A39" s="24" t="s">
@@ -3841,7 +3985,7 @@
       <c r="K39" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="L39" s="42" t="s">
+      <c r="L39" s="47" t="s">
         <v>138</v>
       </c>
       <c r="M39" s="33" t="s">
@@ -3849,7 +3993,7 @@
       </c>
       <c r="N39" s="33"/>
       <c r="O39" s="33"/>
-      <c r="P39" s="42"/>
+      <c r="P39" s="47"/>
     </row>
     <row r="40" ht="78" customHeight="1" spans="1:16">
       <c r="A40" s="24" t="s">
@@ -3879,7 +4023,7 @@
       <c r="K40" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="L40" s="42" t="s">
+      <c r="L40" s="47" t="s">
         <v>142</v>
       </c>
       <c r="M40" s="33" t="s">
@@ -3887,7 +4031,7 @@
       </c>
       <c r="N40" s="33"/>
       <c r="O40" s="33"/>
-      <c r="P40" s="42"/>
+      <c r="P40" s="47"/>
     </row>
     <row r="41" ht="78" customHeight="1" spans="1:16">
       <c r="A41" s="24" t="s">
@@ -3917,7 +4061,7 @@
       <c r="K41" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="L41" s="42" t="s">
+      <c r="L41" s="47" t="s">
         <v>138</v>
       </c>
       <c r="M41" s="33" t="s">
@@ -3925,7 +4069,7 @@
       </c>
       <c r="N41" s="33"/>
       <c r="O41" s="33"/>
-      <c r="P41" s="42"/>
+      <c r="P41" s="47"/>
     </row>
     <row r="42" ht="78" customHeight="1" spans="1:16">
       <c r="A42" s="24" t="s">
@@ -3955,7 +4099,7 @@
       <c r="K42" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="L42" s="42" t="s">
+      <c r="L42" s="47" t="s">
         <v>142</v>
       </c>
       <c r="M42" s="33" t="s">
@@ -3963,7 +4107,7 @@
       </c>
       <c r="N42" s="33"/>
       <c r="O42" s="33"/>
-      <c r="P42" s="42"/>
+      <c r="P42" s="47"/>
     </row>
     <row r="43" ht="78" customHeight="1" spans="1:17">
       <c r="A43" s="24" t="s">
@@ -3995,12 +4139,12 @@
       <c r="K43" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="L43" s="41"/>
+      <c r="L43" s="46"/>
       <c r="M43" s="35"/>
       <c r="N43" s="33"/>
       <c r="O43" s="33"/>
       <c r="P43" s="33"/>
-      <c r="Q43" s="42"/>
+      <c r="Q43" s="47"/>
     </row>
     <row r="44" ht="78" customHeight="1" spans="1:17">
       <c r="A44" s="24" t="s">
@@ -4027,7 +4171,7 @@
       <c r="J44" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="K44" s="41" t="s">
+      <c r="K44" s="46" t="s">
         <v>148</v>
       </c>
       <c r="L44" s="35" t="s">
@@ -4037,7 +4181,7 @@
       <c r="N44" s="33"/>
       <c r="O44" s="33"/>
       <c r="P44" s="33"/>
-      <c r="Q44" s="42"/>
+      <c r="Q44" s="47"/>
     </row>
     <row r="45" ht="78" customHeight="1" spans="1:17">
       <c r="A45" s="24" t="s">
@@ -4067,7 +4211,7 @@
       <c r="K45" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="L45" s="41" t="s">
+      <c r="L45" s="46" t="s">
         <v>148</v>
       </c>
       <c r="M45" s="35" t="s">
@@ -4076,7 +4220,7 @@
       <c r="N45" s="33"/>
       <c r="O45" s="33"/>
       <c r="P45" s="33"/>
-      <c r="Q45" s="42"/>
+      <c r="Q45" s="47"/>
     </row>
     <row r="46" ht="78" customHeight="1" spans="1:17">
       <c r="A46" s="24" t="s">
@@ -4106,7 +4250,7 @@
       <c r="K46" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="L46" s="41" t="s">
+      <c r="L46" s="46" t="s">
         <v>153</v>
       </c>
       <c r="M46" s="35" t="s">
@@ -4115,7 +4259,7 @@
       <c r="N46" s="33"/>
       <c r="O46" s="33"/>
       <c r="P46" s="33"/>
-      <c r="Q46" s="42"/>
+      <c r="Q46" s="47"/>
     </row>
     <row r="47" ht="78" customHeight="1" spans="1:17">
       <c r="A47" s="24" t="s">
@@ -4145,7 +4289,7 @@
       <c r="K47" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="L47" s="41" t="s">
+      <c r="L47" s="46" t="s">
         <v>148</v>
       </c>
       <c r="M47" s="35" t="s">
@@ -4154,7 +4298,7 @@
       <c r="N47" s="33"/>
       <c r="O47" s="33"/>
       <c r="P47" s="33"/>
-      <c r="Q47" s="42"/>
+      <c r="Q47" s="47"/>
     </row>
     <row r="48" ht="78" customHeight="1" spans="1:17">
       <c r="A48" s="24" t="s">
@@ -4184,7 +4328,7 @@
       <c r="K48" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="L48" s="41" t="s">
+      <c r="L48" s="46" t="s">
         <v>153</v>
       </c>
       <c r="M48" s="35" t="s">
@@ -4193,13 +4337,352 @@
       <c r="N48" s="33"/>
       <c r="O48" s="33"/>
       <c r="P48" s="33"/>
-      <c r="Q48" s="42"/>
+      <c r="Q48" s="47"/>
+    </row>
+    <row r="49" ht="78" customHeight="1" spans="1:15">
+      <c r="A49" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="42"/>
+      <c r="D49" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="I49" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="J49" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="K49" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="L49" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+    </row>
+    <row r="50" ht="78" customHeight="1" spans="1:15">
+      <c r="A50" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="I50" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="J50" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="K50" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="L50" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+    </row>
+    <row r="51" ht="78" customHeight="1" spans="1:15">
+      <c r="A51" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J51" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="K51" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="L51" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="M51" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="N51" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="O51" s="33"/>
+    </row>
+    <row r="52" ht="78" customHeight="1" spans="1:15">
+      <c r="A52" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="I52" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J52" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="K52" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="L52" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="M52" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="N52" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="O52" s="33"/>
+    </row>
+    <row r="53" ht="78" customHeight="1" spans="1:15">
+      <c r="A53" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B53" s="41"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="J53" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="K53" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="L53" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="M53" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+    </row>
+    <row r="54" ht="78" customHeight="1" spans="1:15">
+      <c r="A54" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="41"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="I54" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="J54" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="K54" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+    </row>
+    <row r="55" ht="78" customHeight="1" spans="1:15">
+      <c r="A55" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G55" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="I55" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="J55" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="K55" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="L55" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="M55" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="N55" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="O55" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" ht="78" customHeight="1" spans="1:15">
+      <c r="A56" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" s="41"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="J56" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="K56" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="L56" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="M56" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+    </row>
+    <row r="57" ht="78" customHeight="1" spans="1:15">
+      <c r="A57" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" s="41"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G57" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="I57" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="J57" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="K57" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="L57" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="M57" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T42">
+  <autoFilter ref="A1:T48">
     <extLst/>
   </autoFilter>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="C7:C15"/>
@@ -4212,6 +4695,8 @@
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="D37:D42"/>
     <mergeCell ref="D43:D48"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="D54:D57"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="0" priority="99" operator="equal">
@@ -4369,10 +4854,10 @@
         <v>35</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -4389,25 +4874,25 @@
         <v>35</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="35" customHeight="1" spans="1:10">
@@ -4415,14 +4900,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -4450,11 +4935,11 @@
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="19" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="13"/>
@@ -4467,12 +4952,12 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="19" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
@@ -4486,7 +4971,7 @@
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
       <c r="E7" s="12" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>

--- a/testcases_excel/能力展示需实现自动化用例.xlsx
+++ b/testcases_excel/能力展示需实现自动化用例.xlsx
@@ -12,7 +12,7 @@
     <sheet name="测试分析表" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">主流程全部用例!$A$1:$T$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">主流程全部用例!$A$1:$T$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">测试分析表!$A$2:$K$9</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="246">
   <si>
     <t>解析主流程思维导图</t>
   </si>
@@ -701,6 +701,21 @@
   </si>
   <si>
     <t>D查看星数变动列表</t>
+  </si>
+  <si>
+    <t>XX010</t>
+  </si>
+  <si>
+    <t>公司主管理员账号登陆后台</t>
+  </si>
+  <si>
+    <t>对A部门A1增加额外分</t>
+  </si>
+  <si>
+    <t>A1查看星数变动消息列表</t>
+  </si>
+  <si>
+    <t>校验：isRead=0未读，msgTpye为之前所设</t>
   </si>
   <si>
     <t>模块</t>
@@ -1585,7 +1600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1667,6 +1682,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1712,10 +1730,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2226,219 +2247,219 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="23" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="48" customWidth="1"/>
-    <col min="2" max="2" width="23.6666666666667" style="48" customWidth="1"/>
-    <col min="3" max="3" width="82.8333333333333" style="48" customWidth="1"/>
-    <col min="4" max="4" width="10.8333333333333" style="48"/>
-    <col min="5" max="5" width="22.3333333333333" style="48" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="48"/>
+    <col min="1" max="1" width="12.5" style="50" customWidth="1"/>
+    <col min="2" max="2" width="23.6666666666667" style="50" customWidth="1"/>
+    <col min="3" max="3" width="82.8333333333333" style="50" customWidth="1"/>
+    <col min="4" max="4" width="10.8333333333333" style="50"/>
+    <col min="5" max="5" width="22.3333333333333" style="50" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="50"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="54"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="60" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="60"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="62"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="63"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="60"/>
+      <c r="E9" s="62"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-    </row>
-    <row r="12" s="48" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A12" s="27" t="s">
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+    </row>
+    <row r="12" s="50" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-    </row>
-    <row r="13" s="48" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A13" s="27" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
+    </row>
+    <row r="13" s="50" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="75"/>
+      <c r="E16" s="77"/>
     </row>
     <row r="17" ht="43" customHeight="1" spans="1:5">
-      <c r="A17" s="27">
+      <c r="A17" s="28">
         <v>1</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
     </row>
     <row r="18" ht="35" customHeight="1" spans="1:5">
-      <c r="A18" s="27">
+      <c r="A18" s="28">
         <v>2</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
@@ -2470,28 +2491,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
+      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="10.6666666666667" style="27" customWidth="1"/>
+    <col min="1" max="1" width="10.6666666666667" style="28" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="26" customWidth="1"/>
-    <col min="3" max="3" width="8.83333333333333" style="27" customWidth="1"/>
+    <col min="3" max="3" width="8.83333333333333" style="28" customWidth="1"/>
     <col min="4" max="4" width="14.3333333333333" style="26" customWidth="1"/>
     <col min="5" max="5" width="30.125" style="26" customWidth="1"/>
     <col min="6" max="6" width="19.25" style="26" customWidth="1"/>
     <col min="7" max="7" width="27.25" style="26" customWidth="1"/>
     <col min="8" max="8" width="17.875" style="26" customWidth="1"/>
     <col min="9" max="9" width="32" style="26" customWidth="1"/>
-    <col min="10" max="10" width="30.625" style="28" customWidth="1"/>
+    <col min="10" max="10" width="30.625" style="29" customWidth="1"/>
     <col min="11" max="11" width="30.25" style="26" customWidth="1"/>
     <col min="12" max="12" width="31" style="26" customWidth="1"/>
     <col min="13" max="13" width="30.625" style="26" customWidth="1"/>
@@ -2556,270 +2577,270 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
     </row>
     <row r="3" ht="54" customHeight="1" spans="1:15">
       <c r="A3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="19"/>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" ht="55" customHeight="1" spans="1:16">
       <c r="A4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
     </row>
     <row r="5" s="26" customFormat="1" ht="42" customHeight="1" spans="1:16">
       <c r="A5" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
     </row>
     <row r="6" s="26" customFormat="1" ht="42" customHeight="1" spans="1:16">
       <c r="A6" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="33" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:14">
       <c r="A7" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:12">
       <c r="A8" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="46"/>
+      <c r="L8" s="48"/>
     </row>
     <row r="9" ht="53" customHeight="1" spans="1:15">
       <c r="A9" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="M9" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="35" t="s">
+      <c r="N9" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="36" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2827,40 +2848,40 @@
       <c r="A10" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="M10" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="N10" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="35" t="s">
+      <c r="O10" s="36" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2868,107 +2889,107 @@
       <c r="A11" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="35" t="s">
+      <c r="L11" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
     </row>
     <row r="12" ht="56" customHeight="1" spans="1:14">
       <c r="A12" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="L12" s="46" t="s">
+      <c r="L12" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="35" t="s">
+      <c r="M12" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="46"/>
+      <c r="N12" s="48"/>
     </row>
     <row r="13" ht="58" customHeight="1" spans="1:13">
       <c r="A13" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="L13" s="46" t="s">
+      <c r="L13" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="M13" s="35" t="s">
+      <c r="M13" s="36" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2976,34 +2997,34 @@
       <c r="A14" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="46" t="s">
+      <c r="L14" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="M14" s="35" t="s">
+      <c r="M14" s="36" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3011,34 +3032,34 @@
       <c r="A15" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="35" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="46" t="s">
+      <c r="L15" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="M15" s="35" t="s">
+      <c r="M15" s="36" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3046,78 +3067,78 @@
       <c r="A16" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>113</v>
       </c>
       <c r="C16" s="19"/>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="L16" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="M16" s="33" t="s">
+      <c r="M16" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
     </row>
     <row r="17" ht="78" customHeight="1" spans="1:14">
       <c r="A17" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="19"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="33" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="47" t="s">
+      <c r="K17" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="L17" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="M17" s="47" t="s">
+      <c r="M17" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="N17" s="33" t="s">
+      <c r="N17" s="34" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3125,343 +3146,343 @@
       <c r="A18" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="33" t="s">
+      <c r="D18" s="35"/>
+      <c r="E18" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="47" t="s">
+      <c r="K18" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="L18" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="M18" s="47" t="s">
+      <c r="M18" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="N18" s="33" t="s">
+      <c r="N18" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="O18" s="47"/>
+      <c r="O18" s="49"/>
     </row>
     <row r="19" ht="78" customHeight="1" spans="1:15">
       <c r="A19" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="33" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="L19" s="33" t="s">
+      <c r="L19" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="N19" s="33" t="s">
+      <c r="N19" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="O19" s="47"/>
+      <c r="O19" s="49"/>
     </row>
     <row r="20" ht="78" customHeight="1" spans="1:16">
       <c r="A20" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="33" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="47" t="s">
+      <c r="K20" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L20" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="M20" s="47" t="s">
+      <c r="M20" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="N20" s="33" t="s">
+      <c r="N20" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="O20" s="33"/>
-      <c r="P20" s="47"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="49"/>
     </row>
     <row r="21" ht="78" customHeight="1" spans="1:14">
       <c r="A21" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="I21" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="K21" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="L21" s="35" t="s">
+      <c r="L21" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="46"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="48"/>
     </row>
     <row r="22" ht="78" customHeight="1" spans="1:14">
       <c r="A22" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35" t="s">
+      <c r="D22" s="35"/>
+      <c r="E22" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="I22" s="35" t="s">
+      <c r="I22" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="35" t="s">
+      <c r="J22" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="35" t="s">
+      <c r="K22" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="L22" s="46" t="s">
+      <c r="L22" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="M22" s="35" t="s">
+      <c r="M22" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N22" s="46"/>
+      <c r="N22" s="48"/>
     </row>
     <row r="23" ht="78" customHeight="1" spans="1:14">
       <c r="A23" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35" t="s">
+      <c r="D23" s="35"/>
+      <c r="E23" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="J23" s="35" t="s">
+      <c r="J23" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="K23" s="35" t="s">
+      <c r="K23" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="L23" s="46" t="s">
+      <c r="L23" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="M23" s="35" t="s">
+      <c r="M23" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N23" s="46"/>
+      <c r="N23" s="48"/>
     </row>
     <row r="24" ht="78" customHeight="1" spans="1:14">
       <c r="A24" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="35" t="s">
+      <c r="I24" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="J24" s="35" t="s">
+      <c r="J24" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="K24" s="35" t="s">
+      <c r="K24" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="46" t="s">
+      <c r="L24" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="M24" s="35" t="s">
+      <c r="M24" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="N24" s="46"/>
+      <c r="N24" s="48"/>
     </row>
     <row r="25" ht="78" customHeight="1" spans="1:15">
       <c r="A25" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="35" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="35" t="s">
+      <c r="I25" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="35" t="s">
+      <c r="J25" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="46" t="s">
+      <c r="K25" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="L25" s="35" t="s">
+      <c r="L25" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="M25" s="46" t="s">
+      <c r="M25" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="N25" s="35" t="s">
+      <c r="N25" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="O25" s="47"/>
+      <c r="O25" s="49"/>
     </row>
     <row r="26" ht="78" customHeight="1" spans="1:15">
       <c r="A26" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="L26" s="33" t="s">
+      <c r="L26" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="M26" s="33" t="s">
+      <c r="M26" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="N26" s="33" t="s">
+      <c r="N26" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="O26" s="33" t="s">
+      <c r="O26" s="34" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3469,1217 +3490,1240 @@
       <c r="A27" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="28"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="33" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="K27" s="47" t="s">
+      <c r="K27" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="L27" s="33" t="s">
+      <c r="L27" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="M27" s="33" t="s">
+      <c r="M27" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="N27" s="33" t="s">
+      <c r="N27" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="O27" s="33" t="s">
+      <c r="O27" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="P27" s="33" t="s">
+      <c r="P27" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="Q27" s="47"/>
+      <c r="Q27" s="49"/>
     </row>
     <row r="28" ht="78" customHeight="1" spans="1:17">
       <c r="A28" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="33" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="I28" s="33" t="s">
+      <c r="I28" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="J28" s="33" t="s">
+      <c r="J28" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="K28" s="47" t="s">
+      <c r="K28" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="L28" s="33" t="s">
+      <c r="L28" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="M28" s="33" t="s">
+      <c r="M28" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="N28" s="33" t="s">
+      <c r="N28" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="O28" s="33" t="s">
+      <c r="O28" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="P28" s="33" t="s">
+      <c r="P28" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="Q28" s="47"/>
+      <c r="Q28" s="49"/>
     </row>
     <row r="29" ht="78" customHeight="1" spans="1:17">
       <c r="A29" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="28"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="33" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="I29" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="47" t="s">
+      <c r="K29" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="L29" s="33" t="s">
+      <c r="L29" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="M29" s="33" t="s">
+      <c r="M29" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="N29" s="33" t="s">
+      <c r="N29" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="O29" s="33" t="s">
+      <c r="O29" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="P29" s="33" t="s">
+      <c r="P29" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="Q29" s="47"/>
+      <c r="Q29" s="49"/>
     </row>
     <row r="30" ht="78" customHeight="1" spans="1:17">
       <c r="A30" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B30" s="28"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="33" t="s">
+      <c r="D30" s="37"/>
+      <c r="E30" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="I30" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="J30" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="K30" s="47" t="s">
+      <c r="K30" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="L30" s="33" t="s">
+      <c r="L30" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="M30" s="33" t="s">
+      <c r="M30" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="N30" s="33" t="s">
+      <c r="N30" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="O30" s="33" t="s">
+      <c r="O30" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="P30" s="33" t="s">
+      <c r="P30" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="Q30" s="47"/>
+      <c r="Q30" s="49"/>
     </row>
     <row r="31" ht="78" customHeight="1" spans="1:16">
       <c r="A31" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B31" s="28"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="J31" s="35" t="s">
+      <c r="J31" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="K31" s="35" t="s">
+      <c r="K31" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="L31" s="35" t="s">
+      <c r="L31" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="M31" s="46"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="47"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="49"/>
     </row>
     <row r="32" ht="78" customHeight="1" spans="1:16">
       <c r="A32" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="28"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35" t="s">
+      <c r="D32" s="35"/>
+      <c r="E32" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="35" t="s">
+      <c r="I32" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="J32" s="46" t="s">
+      <c r="J32" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="K32" s="35" t="s">
+      <c r="K32" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="L32" s="46" t="s">
+      <c r="L32" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="M32" s="35" t="s">
+      <c r="M32" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="47"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="49"/>
     </row>
     <row r="33" ht="78" customHeight="1" spans="1:17">
       <c r="A33" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B33" s="28"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="I33" s="35" t="s">
+      <c r="I33" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="J33" s="35" t="s">
+      <c r="J33" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="K33" s="46" t="s">
+      <c r="K33" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="L33" s="35" t="s">
+      <c r="L33" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="M33" s="46" t="s">
+      <c r="M33" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="N33" s="35" t="s">
+      <c r="N33" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="47"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="49"/>
     </row>
     <row r="34" ht="78" customHeight="1" spans="1:17">
       <c r="A34" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="28"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35" t="s">
+      <c r="D34" s="35"/>
+      <c r="E34" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G34" s="35" t="s">
+      <c r="G34" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="35" t="s">
+      <c r="H34" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="I34" s="35" t="s">
+      <c r="I34" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="J34" s="35" t="s">
+      <c r="J34" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="K34" s="46" t="s">
+      <c r="K34" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="L34" s="35" t="s">
+      <c r="L34" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M34" s="46" t="s">
+      <c r="M34" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="N34" s="35" t="s">
+      <c r="N34" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="47"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="49"/>
     </row>
     <row r="35" ht="78" customHeight="1" spans="1:17">
       <c r="A35" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="19"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35" t="s">
+      <c r="D35" s="35"/>
+      <c r="E35" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="35" t="s">
+      <c r="G35" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="H35" s="35" t="s">
+      <c r="H35" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="I35" s="35" t="s">
+      <c r="I35" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="J35" s="35" t="s">
+      <c r="J35" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="K35" s="46" t="s">
+      <c r="K35" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="L35" s="35" t="s">
+      <c r="L35" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="M35" s="46" t="s">
+      <c r="M35" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="N35" s="35" t="s">
+      <c r="N35" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="47"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="49"/>
     </row>
     <row r="36" ht="78" customHeight="1" spans="1:17">
       <c r="A36" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="35" t="s">
+      <c r="D36" s="37"/>
+      <c r="E36" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="35" t="s">
+      <c r="F36" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="35" t="s">
+      <c r="G36" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="I36" s="35" t="s">
+      <c r="I36" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="J36" s="35" t="s">
+      <c r="J36" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="K36" s="46" t="s">
+      <c r="K36" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="L36" s="35" t="s">
+      <c r="L36" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M36" s="46" t="s">
+      <c r="M36" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="N36" s="35" t="s">
+      <c r="N36" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="47"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="49"/>
     </row>
     <row r="37" ht="68" customHeight="1" spans="1:16">
       <c r="A37" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="19"/>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H37" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="33" t="s">
+      <c r="I37" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="33" t="s">
+      <c r="J37" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="K37" s="33" t="s">
+      <c r="K37" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="L37" s="47"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="47"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="49"/>
     </row>
     <row r="38" ht="78" customHeight="1" spans="1:16">
       <c r="A38" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="28"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="33" t="s">
+      <c r="D38" s="39"/>
+      <c r="E38" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="I38" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="J38" s="33" t="s">
+      <c r="J38" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="K38" s="47" t="s">
+      <c r="K38" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="L38" s="33" t="s">
+      <c r="L38" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="47"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="49"/>
     </row>
     <row r="39" ht="78" customHeight="1" spans="1:16">
       <c r="A39" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="28"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="19"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="33" t="s">
+      <c r="D39" s="39"/>
+      <c r="E39" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="I39" s="33" t="s">
+      <c r="I39" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="J39" s="33" t="s">
+      <c r="J39" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="K39" s="33" t="s">
+      <c r="K39" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="L39" s="47" t="s">
+      <c r="L39" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="M39" s="33" t="s">
+      <c r="M39" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="47"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="49"/>
     </row>
     <row r="40" ht="78" customHeight="1" spans="1:16">
       <c r="A40" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="28"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="33" t="s">
+      <c r="D40" s="39"/>
+      <c r="E40" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="I40" s="33" t="s">
+      <c r="I40" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="J40" s="33" t="s">
+      <c r="J40" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="K40" s="33" t="s">
+      <c r="K40" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="L40" s="47" t="s">
+      <c r="L40" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="M40" s="33" t="s">
+      <c r="M40" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="47"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="49"/>
     </row>
     <row r="41" ht="78" customHeight="1" spans="1:16">
       <c r="A41" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="28"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="19"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="33" t="s">
+      <c r="D41" s="39"/>
+      <c r="E41" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G41" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="H41" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="I41" s="33" t="s">
+      <c r="I41" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J41" s="33" t="s">
+      <c r="J41" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="K41" s="33" t="s">
+      <c r="K41" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="L41" s="47" t="s">
+      <c r="L41" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="M41" s="33" t="s">
+      <c r="M41" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="47"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="49"/>
     </row>
     <row r="42" ht="78" customHeight="1" spans="1:16">
       <c r="A42" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="B42" s="28"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="19"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="33" t="s">
+      <c r="D42" s="40"/>
+      <c r="E42" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G42" s="33" t="s">
+      <c r="G42" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="33" t="s">
+      <c r="H42" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="I42" s="33" t="s">
+      <c r="I42" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="33" t="s">
+      <c r="J42" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="K42" s="33" t="s">
+      <c r="K42" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="L42" s="47" t="s">
+      <c r="L42" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="M42" s="33" t="s">
+      <c r="M42" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="47"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="49"/>
     </row>
     <row r="43" ht="78" customHeight="1" spans="1:17">
       <c r="A43" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="B43" s="28"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="19"/>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="F43" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="35" t="s">
+      <c r="H43" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="I43" s="35" t="s">
+      <c r="I43" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="J43" s="35" t="s">
+      <c r="J43" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="K43" s="35" t="s">
+      <c r="K43" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="L43" s="46"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="47"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="49"/>
     </row>
     <row r="44" ht="78" customHeight="1" spans="1:17">
       <c r="A44" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B44" s="28"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="35" t="s">
+      <c r="D44" s="39"/>
+      <c r="E44" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="F44" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="G44" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="H44" s="35" t="s">
+      <c r="H44" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I44" s="35" t="s">
+      <c r="I44" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="J44" s="35" t="s">
+      <c r="J44" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="K44" s="46" t="s">
+      <c r="K44" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="L44" s="35" t="s">
+      <c r="L44" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="M44" s="35"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="47"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="49"/>
     </row>
     <row r="45" ht="78" customHeight="1" spans="1:17">
       <c r="A45" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B45" s="28"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="35" t="s">
+      <c r="D45" s="39"/>
+      <c r="E45" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F45" s="35" t="s">
+      <c r="F45" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="G45" s="35" t="s">
+      <c r="G45" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="H45" s="35" t="s">
+      <c r="H45" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="I45" s="35" t="s">
+      <c r="I45" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="J45" s="35" t="s">
+      <c r="J45" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="K45" s="35" t="s">
+      <c r="K45" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="L45" s="46" t="s">
+      <c r="L45" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="M45" s="35" t="s">
+      <c r="M45" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="47"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="49"/>
     </row>
     <row r="46" ht="78" customHeight="1" spans="1:17">
       <c r="A46" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B46" s="28"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="35" t="s">
+      <c r="D46" s="39"/>
+      <c r="E46" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="F46" s="35" t="s">
+      <c r="F46" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="G46" s="35" t="s">
+      <c r="G46" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="H46" s="35" t="s">
+      <c r="H46" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="I46" s="35" t="s">
+      <c r="I46" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="J46" s="35" t="s">
+      <c r="J46" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="K46" s="35" t="s">
+      <c r="K46" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="L46" s="46" t="s">
+      <c r="L46" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="M46" s="35" t="s">
+      <c r="M46" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="47"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="49"/>
     </row>
     <row r="47" ht="78" customHeight="1" spans="1:17">
       <c r="A47" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="B47" s="28"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="19"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="35" t="s">
+      <c r="D47" s="39"/>
+      <c r="E47" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F47" s="35" t="s">
+      <c r="F47" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="G47" s="35" t="s">
+      <c r="G47" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="H47" s="35" t="s">
+      <c r="H47" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="I47" s="35" t="s">
+      <c r="I47" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="J47" s="35" t="s">
+      <c r="J47" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="K47" s="35" t="s">
+      <c r="K47" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="L47" s="46" t="s">
+      <c r="L47" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="M47" s="35" t="s">
+      <c r="M47" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="47"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="49"/>
     </row>
     <row r="48" ht="78" customHeight="1" spans="1:17">
       <c r="A48" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B48" s="28"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="35" t="s">
+      <c r="D48" s="40"/>
+      <c r="E48" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="F48" s="35" t="s">
+      <c r="F48" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="G48" s="35" t="s">
+      <c r="G48" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="H48" s="35" t="s">
+      <c r="H48" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="I48" s="35" t="s">
+      <c r="I48" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="J48" s="35" t="s">
+      <c r="J48" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="K48" s="35" t="s">
+      <c r="K48" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="L48" s="46" t="s">
+      <c r="L48" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="M48" s="35" t="s">
+      <c r="M48" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="47"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="49"/>
     </row>
     <row r="49" ht="78" customHeight="1" spans="1:15">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="C49" s="42"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="G49" s="33" t="s">
+      <c r="G49" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="H49" s="33" t="s">
+      <c r="H49" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="I49" s="33" t="s">
+      <c r="I49" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="J49" s="33" t="s">
+      <c r="J49" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="K49" s="33" t="s">
+      <c r="K49" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="L49" s="33" t="s">
+      <c r="L49" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
     </row>
     <row r="50" ht="78" customHeight="1" spans="1:15">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="43"/>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="G50" s="33" t="s">
+      <c r="G50" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="H50" s="33" t="s">
+      <c r="H50" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="I50" s="33" t="s">
+      <c r="I50" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="J50" s="33" t="s">
+      <c r="J50" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="K50" s="33" t="s">
+      <c r="K50" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="L50" s="33" t="s">
+      <c r="L50" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
     </row>
     <row r="51" ht="78" customHeight="1" spans="1:15">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="43"/>
-      <c r="E51" s="33" t="s">
+      <c r="E51" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="G51" s="33" t="s">
+      <c r="G51" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="H51" s="33" t="s">
+      <c r="H51" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="I51" s="33" t="s">
+      <c r="I51" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="J51" s="33" t="s">
+      <c r="J51" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="K51" s="33" t="s">
+      <c r="K51" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="L51" s="33" t="s">
+      <c r="L51" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="M51" s="33" t="s">
+      <c r="M51" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="N51" s="33" t="s">
+      <c r="N51" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="O51" s="33"/>
+      <c r="O51" s="34"/>
     </row>
     <row r="52" ht="78" customHeight="1" spans="1:15">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="43"/>
-      <c r="E52" s="33" t="s">
+      <c r="E52" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="G52" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="H52" s="33" t="s">
+      <c r="H52" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="I52" s="33" t="s">
+      <c r="I52" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="J52" s="33" t="s">
+      <c r="J52" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="K52" s="33" t="s">
+      <c r="K52" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="L52" s="33" t="s">
+      <c r="L52" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="M52" s="33" t="s">
+      <c r="M52" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="N52" s="33" t="s">
+      <c r="N52" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="O52" s="33"/>
+      <c r="O52" s="34"/>
     </row>
     <row r="53" ht="78" customHeight="1" spans="1:15">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="44"/>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="H53" s="33" t="s">
+      <c r="H53" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="I53" s="33" t="s">
+      <c r="I53" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="J53" s="33" t="s">
+      <c r="J53" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="K53" s="33" t="s">
+      <c r="K53" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="L53" s="33" t="s">
+      <c r="L53" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="M53" s="33" t="s">
+      <c r="M53" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
     </row>
     <row r="54" ht="78" customHeight="1" spans="1:15">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="F54" s="35" t="s">
+      <c r="F54" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="G54" s="35" t="s">
+      <c r="G54" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="H54" s="35" t="s">
+      <c r="H54" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="I54" s="35" t="s">
+      <c r="I54" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="J54" s="35" t="s">
+      <c r="J54" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="K54" s="35" t="s">
+      <c r="K54" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
     </row>
     <row r="55" ht="78" customHeight="1" spans="1:15">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="43"/>
-      <c r="E55" s="35" t="s">
+      <c r="E55" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="F55" s="35" t="s">
+      <c r="F55" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="G55" s="35" t="s">
+      <c r="G55" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="H55" s="35" t="s">
+      <c r="H55" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="I55" s="35" t="s">
+      <c r="I55" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="J55" s="35" t="s">
+      <c r="J55" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="K55" s="35" t="s">
+      <c r="K55" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="L55" s="35" t="s">
+      <c r="L55" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="M55" s="35" t="s">
+      <c r="M55" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="N55" s="35" t="s">
+      <c r="N55" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="O55" s="35" t="s">
+      <c r="O55" s="36" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="56" ht="78" customHeight="1" spans="1:15">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="43"/>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="F56" s="35" t="s">
+      <c r="F56" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="G56" s="35" t="s">
+      <c r="G56" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="H56" s="35" t="s">
+      <c r="H56" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="I56" s="35" t="s">
+      <c r="I56" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="J56" s="35" t="s">
+      <c r="J56" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="K56" s="35" t="s">
+      <c r="K56" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="L56" s="35" t="s">
+      <c r="L56" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="M56" s="35" t="s">
+      <c r="M56" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
     </row>
     <row r="57" ht="78" customHeight="1" spans="1:15">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="44"/>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="35" t="s">
+      <c r="F57" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="G57" s="35" t="s">
+      <c r="G57" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="H57" s="35" t="s">
+      <c r="H57" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="I57" s="35" t="s">
+      <c r="I57" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="J57" s="35" t="s">
+      <c r="J57" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="K57" s="35" t="s">
+      <c r="K57" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="L57" s="35" t="s">
+      <c r="L57" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="M57" s="35" t="s">
+      <c r="M57" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+    </row>
+    <row r="58" s="27" customFormat="1" ht="78" customHeight="1" spans="1:9">
+      <c r="A58" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" s="42"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="I58" s="36" t="s">
+        <v>231</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T48">
+  <autoFilter ref="A1:T57">
     <extLst/>
   </autoFilter>
   <mergeCells count="14">
@@ -4854,10 +4898,10 @@
         <v>35</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -4874,25 +4918,25 @@
         <v>35</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="35" customHeight="1" spans="1:10">
@@ -4900,14 +4944,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -4935,11 +4979,11 @@
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="19" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="13"/>
@@ -4952,12 +4996,12 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="19" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
@@ -4971,7 +5015,7 @@
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
       <c r="E7" s="12" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>

--- a/testcases_excel/能力展示需实现自动化用例.xlsx
+++ b/testcases_excel/能力展示需实现自动化用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12420"/>
+    <workbookView windowWidth="28080" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="规划表" sheetId="6" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="测试分析表" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">主流程全部用例!$A$1:$T$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">主流程全部用例!$A$1:$T$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">测试分析表!$A$2:$K$9</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
   <si>
     <t>解析主流程思维导图</t>
   </si>
@@ -551,6 +551,27 @@
   </si>
   <si>
     <t>ST027</t>
+  </si>
+  <si>
+    <t>ST028</t>
+  </si>
+  <si>
+    <t>评分权限人员登录系统（总提问+已解决校验）</t>
+  </si>
+  <si>
+    <t>ST029</t>
+  </si>
+  <si>
+    <t>ST030</t>
+  </si>
+  <si>
+    <t>ST031</t>
+  </si>
+  <si>
+    <t>ST032</t>
+  </si>
+  <si>
+    <t>ST033</t>
   </si>
   <si>
     <t>模块</t>
@@ -601,9 +622,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -657,13 +678,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -694,44 +708,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -750,9 +726,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -773,13 +749,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -787,7 +756,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,13 +823,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,18 +874,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDEECF8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -877,31 +886,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,49 +928,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,30 +976,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1034,6 +983,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,6 +1043,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,17 +1265,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1297,157 +1295,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1535,18 +1544,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1559,24 +1562,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1592,26 +1583,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1619,7 +1592,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1631,10 +1604,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1646,7 +1616,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1673,13 +1643,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1691,17 +1661,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2109,225 +2076,225 @@
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D18" sqref="D18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="23" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="55" customWidth="1"/>
-    <col min="2" max="2" width="23.6666666666667" style="55" customWidth="1"/>
-    <col min="3" max="3" width="82.8333333333333" style="55" customWidth="1"/>
-    <col min="4" max="4" width="10.8333333333333" style="55"/>
-    <col min="5" max="5" width="22.3333333333333" style="55" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="55"/>
+    <col min="1" max="1" width="12.5" style="43" customWidth="1"/>
+    <col min="2" max="2" width="23.6666666666667" style="43" customWidth="1"/>
+    <col min="3" max="3" width="82.8333333333333" style="43" customWidth="1"/>
+    <col min="4" max="4" width="10.8333333333333" style="43"/>
+    <col min="5" max="5" width="22.3333333333333" style="43" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="43"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:5">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="53" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="68"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="70"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="71"/>
-      <c r="B8" s="62" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="68"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-    </row>
-    <row r="12" s="55" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A12" s="62" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+    </row>
+    <row r="12" s="43" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-    </row>
-    <row r="13" s="55" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A13" s="62" t="s">
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+    </row>
+    <row r="13" s="43" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="70"/>
     </row>
     <row r="17" ht="43" customHeight="1" spans="1:5">
-      <c r="A17" s="62">
+      <c r="A17" s="27">
         <v>1</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
     </row>
     <row r="18" ht="35" customHeight="1" spans="1:5">
-      <c r="A18" s="62">
+      <c r="A18" s="27">
         <v>2</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
@@ -2361,12 +2328,12 @@
   <sheetPr/>
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:P2"/>
+      <selection pane="bottomRight" activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
@@ -2392,107 +2359,107 @@
   </cols>
   <sheetData>
     <row r="1" s="25" customFormat="1" ht="33" customHeight="1" spans="1:17">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="3" ht="54" customHeight="1" spans="1:15">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="19"/>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="33" t="s">
         <v>64</v>
       </c>
       <c r="K3" s="28"/>
@@ -2502,31 +2469,31 @@
       <c r="O3" s="28"/>
     </row>
     <row r="4" ht="55" customHeight="1" spans="1:16">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="33" t="s">
         <v>69</v>
       </c>
       <c r="L4" s="28"/>
@@ -2536,31 +2503,31 @@
       <c r="P4" s="28"/>
     </row>
     <row r="5" s="26" customFormat="1" ht="42" customHeight="1" spans="1:16">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="24" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="33" t="s">
         <v>64</v>
       </c>
       <c r="L5" s="28"/>
@@ -2570,31 +2537,31 @@
       <c r="P5" s="28"/>
     </row>
     <row r="6" s="26" customFormat="1" ht="42" customHeight="1" spans="1:16">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="24" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="35" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="33" t="s">
         <v>75</v>
       </c>
       <c r="L6" s="28"/>
@@ -2604,1534 +2571,1635 @@
       <c r="P6" s="28"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:14">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:12">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="38" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="48"/>
+      <c r="L8" s="41"/>
     </row>
     <row r="9" ht="53" customHeight="1" spans="1:15">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="38" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="47" t="s">
+      <c r="K9" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="49" t="s">
+      <c r="L9" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="M9" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="49" t="s">
+      <c r="N9" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" ht="53" customHeight="1" spans="1:15">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="38" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="49" t="s">
+      <c r="L10" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="49" t="s">
+      <c r="N10" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="38" t="s">
+      <c r="O10" s="35" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" ht="53" customHeight="1" spans="1:15">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="38" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="K11" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="38"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
     </row>
     <row r="12" ht="56" customHeight="1" spans="1:14">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="36" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="L12" s="47" t="s">
+      <c r="L12" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="38" t="s">
+      <c r="M12" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="48"/>
+      <c r="N12" s="41"/>
     </row>
     <row r="13" ht="58" customHeight="1" spans="1:13">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="38" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="L13" s="47" t="s">
+      <c r="L13" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="M13" s="38" t="s">
+      <c r="M13" s="35" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" ht="78" customHeight="1" spans="1:13">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="38" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="47" t="s">
+      <c r="L14" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="M14" s="38" t="s">
+      <c r="M14" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" ht="78" customHeight="1" spans="1:13">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="38" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="47" t="s">
+      <c r="L15" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="M15" s="38" t="s">
+      <c r="M15" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" ht="119" customHeight="1" spans="1:15">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="34" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="L16" s="50" t="s">
+      <c r="L16" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="M16" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
     </row>
     <row r="17" ht="78" customHeight="1" spans="1:14">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="24" t="s">
         <v>120</v>
       </c>
       <c r="B17" s="28"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="35" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="52" t="s">
+      <c r="K17" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="L17" s="35" t="s">
+      <c r="L17" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="M17" s="51" t="s">
+      <c r="M17" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="18" ht="78" customHeight="1" spans="1:15">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="24" t="s">
         <v>124</v>
       </c>
       <c r="B18" s="28"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="35" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="I18" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="J18" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="52" t="s">
+      <c r="K18" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="L18" s="50" t="s">
+      <c r="L18" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="M18" s="51" t="s">
+      <c r="M18" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="N18" s="53" t="s">
+      <c r="N18" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="O18" s="51"/>
+      <c r="O18" s="42"/>
     </row>
     <row r="19" ht="78" customHeight="1" spans="1:15">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="24" t="s">
         <v>132</v>
       </c>
       <c r="B19" s="28"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="35" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="K19" s="52" t="s">
+      <c r="K19" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="L19" s="50" t="s">
+      <c r="L19" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="51" t="s">
+      <c r="M19" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="N19" s="53" t="s">
+      <c r="N19" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="O19" s="51"/>
+      <c r="O19" s="42"/>
     </row>
     <row r="20" ht="78" customHeight="1" spans="1:16">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="24" t="s">
         <v>135</v>
       </c>
       <c r="B20" s="28"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="35" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="35" t="s">
+      <c r="J20" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="52" t="s">
+      <c r="K20" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="L20" s="35" t="s">
+      <c r="L20" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="M20" s="51" t="s">
+      <c r="M20" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="N20" s="53" t="s">
+      <c r="N20" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="O20" s="53"/>
-      <c r="P20" s="51"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="42"/>
     </row>
     <row r="21" ht="78" customHeight="1" spans="1:14">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="24" t="s">
         <v>136</v>
       </c>
       <c r="B21" s="28"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="36" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="J21" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="K21" s="49" t="s">
+      <c r="K21" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="M21" s="54"/>
-      <c r="N21" s="48"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="41"/>
     </row>
     <row r="22" ht="78" customHeight="1" spans="1:14">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="24" t="s">
         <v>140</v>
       </c>
       <c r="B22" s="28"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="38" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="L22" s="48" t="s">
+      <c r="L22" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="M22" s="54" t="s">
+      <c r="M22" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="N22" s="48"/>
+      <c r="N22" s="41"/>
     </row>
     <row r="23" ht="78" customHeight="1" spans="1:14">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="24" t="s">
         <v>141</v>
       </c>
       <c r="B23" s="28"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="38" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="J23" s="38" t="s">
+      <c r="J23" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="K23" s="49" t="s">
+      <c r="K23" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="L23" s="48" t="s">
+      <c r="L23" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="M23" s="54" t="s">
+      <c r="M23" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="N23" s="48"/>
+      <c r="N23" s="41"/>
     </row>
     <row r="24" ht="78" customHeight="1" spans="1:14">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="24" t="s">
         <v>143</v>
       </c>
       <c r="B24" s="28"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="38" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="K24" s="49" t="s">
+      <c r="K24" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="48" t="s">
+      <c r="L24" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="M24" s="54" t="s">
+      <c r="M24" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="N24" s="48"/>
+      <c r="N24" s="41"/>
     </row>
     <row r="25" ht="78" customHeight="1" spans="1:15">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="24" t="s">
         <v>145</v>
       </c>
       <c r="B25" s="28"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="38" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="H25" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="47" t="s">
+      <c r="K25" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="M25" s="48" t="s">
+      <c r="M25" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="N25" s="54" t="s">
+      <c r="N25" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="O25" s="51"/>
+      <c r="O25" s="42"/>
     </row>
     <row r="26" ht="78" customHeight="1" spans="1:15">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="24" t="s">
         <v>146</v>
       </c>
       <c r="B26" s="28"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="36" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="I26" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="J26" s="35" t="s">
+      <c r="J26" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="K26" s="35" t="s">
+      <c r="K26" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="L26" s="35" t="s">
+      <c r="L26" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="M26" s="35" t="s">
+      <c r="M26" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="N26" s="50" t="s">
+      <c r="N26" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="O26" s="35" t="s">
+      <c r="O26" s="33" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="27" ht="78" customHeight="1" spans="1:17">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="24" t="s">
         <v>151</v>
       </c>
       <c r="B27" s="28"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="35" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="35" t="s">
+      <c r="I27" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="K27" s="52" t="s">
+      <c r="K27" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="L27" s="35" t="s">
+      <c r="L27" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="M27" s="35" t="s">
+      <c r="M27" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="N27" s="35" t="s">
+      <c r="N27" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="O27" s="53" t="s">
+      <c r="O27" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="P27" s="53" t="s">
+      <c r="P27" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="Q27" s="51"/>
+      <c r="Q27" s="42"/>
     </row>
     <row r="28" ht="78" customHeight="1" spans="1:17">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="24" t="s">
         <v>152</v>
       </c>
       <c r="B28" s="28"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="35" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="I28" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="J28" s="35" t="s">
+      <c r="J28" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="K28" s="52" t="s">
+      <c r="K28" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="L28" s="35" t="s">
+      <c r="L28" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="M28" s="35" t="s">
+      <c r="M28" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="N28" s="50" t="s">
+      <c r="N28" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="O28" s="53" t="s">
+      <c r="O28" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="P28" s="53" t="s">
+      <c r="P28" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="Q28" s="51"/>
+      <c r="Q28" s="42"/>
     </row>
     <row r="29" ht="78" customHeight="1" spans="1:17">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="24" t="s">
         <v>156</v>
       </c>
       <c r="B29" s="28"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="35" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="J29" s="35" t="s">
+      <c r="J29" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="52" t="s">
+      <c r="K29" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="L29" s="35" t="s">
+      <c r="L29" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="M29" s="35" t="s">
+      <c r="M29" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="N29" s="50" t="s">
+      <c r="N29" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="O29" s="53" t="s">
+      <c r="O29" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="P29" s="53" t="s">
+      <c r="P29" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="Q29" s="51"/>
+      <c r="Q29" s="42"/>
     </row>
     <row r="30" ht="78" customHeight="1" spans="1:17">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="24" t="s">
         <v>158</v>
       </c>
       <c r="B30" s="28"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="35" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="I30" s="35" t="s">
+      <c r="I30" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="35" t="s">
+      <c r="J30" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="K30" s="52" t="s">
+      <c r="K30" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="L30" s="35" t="s">
+      <c r="L30" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="M30" s="35" t="s">
+      <c r="M30" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="N30" s="35" t="s">
+      <c r="N30" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="O30" s="53" t="s">
+      <c r="O30" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="P30" s="53" t="s">
+      <c r="P30" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="Q30" s="51"/>
+      <c r="Q30" s="42"/>
     </row>
     <row r="31" ht="78" customHeight="1" spans="1:16">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="24" t="s">
         <v>159</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="34" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="38" t="s">
+      <c r="H31" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="J31" s="38" t="s">
+      <c r="J31" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="K31" s="49" t="s">
+      <c r="K31" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="L31" s="38" t="s">
+      <c r="L31" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="M31" s="48"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="51"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="42"/>
     </row>
     <row r="32" ht="78" customHeight="1" spans="1:16">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="24" t="s">
         <v>162</v>
       </c>
       <c r="B32" s="28"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="38" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="H32" s="38" t="s">
+      <c r="H32" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="J32" s="47" t="s">
+      <c r="J32" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="K32" s="38" t="s">
+      <c r="K32" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="L32" s="48" t="s">
+      <c r="L32" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="M32" s="54" t="s">
+      <c r="M32" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="51"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="42"/>
     </row>
     <row r="33" ht="78" customHeight="1" spans="1:17">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="24" t="s">
         <v>163</v>
       </c>
       <c r="B33" s="28"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="38" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="I33" s="38" t="s">
+      <c r="I33" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="K33" s="47" t="s">
+      <c r="K33" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="L33" s="38" t="s">
+      <c r="L33" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="M33" s="48" t="s">
+      <c r="M33" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="N33" s="54" t="s">
+      <c r="N33" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="51"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="42"/>
     </row>
     <row r="34" ht="78" customHeight="1" spans="1:17">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="24" t="s">
         <v>165</v>
       </c>
       <c r="B34" s="28"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="38" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="38" t="s">
+      <c r="H34" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="I34" s="38" t="s">
+      <c r="I34" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="J34" s="38" t="s">
+      <c r="J34" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="K34" s="47" t="s">
+      <c r="K34" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="L34" s="49" t="s">
+      <c r="L34" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="M34" s="48" t="s">
+      <c r="M34" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="N34" s="54" t="s">
+      <c r="N34" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="51"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="42"/>
     </row>
     <row r="35" ht="78" customHeight="1" spans="1:17">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="24" t="s">
         <v>168</v>
       </c>
       <c r="B35" s="28"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="38" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="H35" s="38" t="s">
+      <c r="H35" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="I35" s="38" t="s">
+      <c r="I35" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J35" s="38" t="s">
+      <c r="J35" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="K35" s="47" t="s">
+      <c r="K35" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="L35" s="38" t="s">
+      <c r="L35" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="M35" s="48" t="s">
+      <c r="M35" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="N35" s="54" t="s">
+      <c r="N35" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="51"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="42"/>
     </row>
     <row r="36" ht="78" customHeight="1" spans="1:17">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="24" t="s">
         <v>169</v>
       </c>
       <c r="B36" s="28"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="38" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F36" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="H36" s="38" t="s">
+      <c r="H36" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="I36" s="38" t="s">
+      <c r="I36" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="J36" s="38" t="s">
+      <c r="J36" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="K36" s="47" t="s">
+      <c r="K36" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="L36" s="49" t="s">
+      <c r="L36" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="M36" s="48" t="s">
+      <c r="M36" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="N36" s="54" t="s">
+      <c r="N36" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="51"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="42"/>
     </row>
     <row r="37" ht="68" customHeight="1" spans="1:16">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="24" t="s">
         <v>170</v>
       </c>
       <c r="B37" s="28"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43" t="s">
+      <c r="C37" s="19"/>
+      <c r="D37" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="35" t="s">
+      <c r="G37" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H37" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="35" t="s">
+      <c r="I37" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="50" t="s">
+      <c r="J37" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="K37" s="35" t="s">
+      <c r="K37" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="L37" s="52"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="51"/>
-    </row>
-    <row r="38" ht="78" customHeight="1" spans="1:17">
-      <c r="A38" s="32" t="s">
+      <c r="L37" s="42"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="42"/>
+    </row>
+    <row r="38" ht="78" customHeight="1" spans="1:16">
+      <c r="A38" s="24" t="s">
         <v>172</v>
       </c>
       <c r="B38" s="28"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="35" t="s">
+      <c r="C38" s="19"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="G38" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="H38" s="35" t="s">
+      <c r="H38" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="35" t="s">
+      <c r="I38" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="J38" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="K38" s="35" t="s">
+      <c r="J38" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="L38" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="M38" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="N38" s="50"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="51"/>
-    </row>
-    <row r="39" ht="78" customHeight="1" spans="1:17">
-      <c r="A39" s="32" t="s">
+      <c r="K38" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="L38" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="42"/>
+    </row>
+    <row r="39" ht="78" customHeight="1" spans="1:16">
+      <c r="A39" s="24" t="s">
         <v>173</v>
       </c>
       <c r="B39" s="28"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="35" t="s">
+      <c r="C39" s="19"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="F39" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="35" t="s">
+      <c r="F39" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="35" t="s">
+      <c r="H39" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="I39" s="35" t="s">
+      <c r="I39" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="J39" s="35" t="s">
+      <c r="J39" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="K39" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="L39" s="35" t="s">
+      <c r="K39" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="M39" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="N39" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="51"/>
-    </row>
-    <row r="40" ht="78" customHeight="1" spans="1:17">
-      <c r="A40" s="32" t="s">
+      <c r="L39" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="M39" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="42"/>
+    </row>
+    <row r="40" ht="78" customHeight="1" spans="1:16">
+      <c r="A40" s="24" t="s">
         <v>174</v>
       </c>
       <c r="B40" s="28"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="35" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" s="35" t="s">
+      <c r="F40" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="H40" s="35" t="s">
+      <c r="H40" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="I40" s="35" t="s">
+      <c r="I40" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="J40" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="K40" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="L40" s="50" t="s">
+      <c r="J40" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="M40" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="N40" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="51"/>
-    </row>
-    <row r="41" ht="78" customHeight="1" spans="1:17">
-      <c r="A41" s="32" t="s">
+      <c r="L40" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="M40" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="42"/>
+    </row>
+    <row r="41" ht="78" customHeight="1" spans="1:16">
+      <c r="A41" s="24" t="s">
         <v>175</v>
       </c>
       <c r="B41" s="28"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="35" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="F41" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="G41" s="35" t="s">
+      <c r="F41" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="H41" s="35" t="s">
+      <c r="H41" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="I41" s="35" t="s">
+      <c r="I41" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="J41" s="35" t="s">
+      <c r="J41" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="K41" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="L41" s="35" t="s">
+      <c r="K41" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="M41" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="N41" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="51"/>
-    </row>
-    <row r="42" ht="78" customHeight="1" spans="1:17">
-      <c r="A42" s="32" t="s">
+      <c r="L41" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="M41" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="42"/>
+    </row>
+    <row r="42" ht="78" customHeight="1" spans="1:16">
+      <c r="A42" s="24" t="s">
         <v>176</v>
       </c>
       <c r="B42" s="28"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="35" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="F42" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" s="35" t="s">
+      <c r="F42" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="H42" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="I42" s="35" t="s">
+      <c r="I42" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="35" t="s">
+      <c r="J42" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="K42" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="L42" s="50" t="s">
+      <c r="K42" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="M42" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="N42" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="51"/>
+      <c r="L42" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="M42" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="42"/>
     </row>
     <row r="43" ht="78" customHeight="1" spans="1:17">
-      <c r="A43" s="32"/>
+      <c r="A43" s="24" t="s">
+        <v>177</v>
+      </c>
       <c r="B43" s="28"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="35"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="K43" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="L43" s="41"/>
       <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="51"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="42"/>
     </row>
     <row r="44" ht="78" customHeight="1" spans="1:17">
-      <c r="A44" s="32"/>
+      <c r="A44" s="24" t="s">
+        <v>179</v>
+      </c>
       <c r="B44" s="28"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="35"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J44" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="K44" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="L44" s="35" t="s">
+        <v>150</v>
+      </c>
       <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="51"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="42"/>
     </row>
     <row r="45" ht="78" customHeight="1" spans="1:17">
-      <c r="A45" s="32"/>
+      <c r="A45" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="B45" s="28"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="51"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="K45" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="L45" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="M45" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="42"/>
     </row>
     <row r="46" ht="78" customHeight="1" spans="1:17">
-      <c r="A46" s="32"/>
+      <c r="A46" s="24" t="s">
+        <v>181</v>
+      </c>
       <c r="B46" s="28"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="51"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I46" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="J46" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="K46" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="L46" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="M46" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="42"/>
     </row>
     <row r="47" ht="78" customHeight="1" spans="1:17">
-      <c r="A47" s="32"/>
+      <c r="A47" s="24" t="s">
+        <v>182</v>
+      </c>
       <c r="B47" s="28"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="51"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="K47" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="L47" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="M47" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="42"/>
     </row>
     <row r="48" ht="78" customHeight="1" spans="1:17">
-      <c r="A48" s="32"/>
+      <c r="A48" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="B48" s="28"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="51"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="L48" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="M48" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T2">
+  <autoFilter ref="A1:T42">
     <extLst/>
   </autoFilter>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="C7:C15"/>
@@ -4143,6 +4211,7 @@
     <mergeCell ref="D26:D30"/>
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="D37:D42"/>
+    <mergeCell ref="D43:D48"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="0" priority="99" operator="equal">
@@ -4300,10 +4369,10 @@
         <v>35</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -4320,25 +4389,25 @@
         <v>35</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="35" customHeight="1" spans="1:10">
@@ -4346,14 +4415,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -4381,11 +4450,11 @@
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="19" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="13"/>
@@ -4398,12 +4467,12 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="19" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
@@ -4417,7 +4486,7 @@
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
       <c r="E7" s="12" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>

--- a/testcases_excel/能力展示需实现自动化用例.xlsx
+++ b/testcases_excel/能力展示需实现自动化用例.xlsx
@@ -12,7 +12,7 @@
     <sheet name="测试分析表" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">主流程全部用例!$A$1:$T$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">主流程全部用例!$A$1:$T$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">测试分析表!$A$2:$K$9</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="317">
   <si>
     <t>解析主流程思维导图</t>
   </si>
@@ -716,6 +716,219 @@
   </si>
   <si>
     <t>校验：isRead=0未读，msgTpye为之前所设</t>
+  </si>
+  <si>
+    <t>SX001</t>
+  </si>
+  <si>
+    <t>问题筛选测试用例合集</t>
+  </si>
+  <si>
+    <t>问题筛选模块展示权限校验</t>
+  </si>
+  <si>
+    <t>未被设置为任何筛选模块的A登陆</t>
+  </si>
+  <si>
+    <t>校验filterModule=0</t>
+  </si>
+  <si>
+    <t>SX002</t>
+  </si>
+  <si>
+    <t>被设置为部门长的A登陆</t>
+  </si>
+  <si>
+    <t>校验filterModule=1</t>
+  </si>
+  <si>
+    <t>SX003</t>
+  </si>
+  <si>
+    <t>被设置为高管的A登陆</t>
+  </si>
+  <si>
+    <t>校验filterModule=2</t>
+  </si>
+  <si>
+    <t>SX004</t>
+  </si>
+  <si>
+    <t>被设置为boss的A登陆</t>
+  </si>
+  <si>
+    <t>校验filterModule=3</t>
+  </si>
+  <si>
+    <t>SX005</t>
+  </si>
+  <si>
+    <t>部门长查看未标记问题</t>
+  </si>
+  <si>
+    <t>部门长且对A部门有评分权限，A部门C进入【标记】模块</t>
+  </si>
+  <si>
+    <t>校验qid</t>
+  </si>
+  <si>
+    <t>SX006</t>
+  </si>
+  <si>
+    <t>部门长且对A部门无评分权限，A部门C进入【标记】模块</t>
+  </si>
+  <si>
+    <t>若列表为空，校验返回0与qid不符；若列表不为空校验第一条qid</t>
+  </si>
+  <si>
+    <t>SX007</t>
+  </si>
+  <si>
+    <t>部门长且对A部门有评分权限，B部门C进入【标记】模块</t>
+  </si>
+  <si>
+    <t>SX008</t>
+  </si>
+  <si>
+    <t>标记问题</t>
+  </si>
+  <si>
+    <t>C对该问题标记【紧急、重要、可做】</t>
+  </si>
+  <si>
+    <t>验证qGrade=1</t>
+  </si>
+  <si>
+    <t>SX009</t>
+  </si>
+  <si>
+    <t>C对该问题标记【紧急、重要、一般】</t>
+  </si>
+  <si>
+    <t>验证qGrade=2</t>
+  </si>
+  <si>
+    <t>SX010</t>
+  </si>
+  <si>
+    <t>C对该问题标记【紧急、重要、不可做】</t>
+  </si>
+  <si>
+    <t>验证qGrade=0</t>
+  </si>
+  <si>
+    <t>SX011</t>
+  </si>
+  <si>
+    <t>C对该问题标记为空或其他</t>
+  </si>
+  <si>
+    <t>验证标记不成功</t>
+  </si>
+  <si>
+    <t>SX012</t>
+  </si>
+  <si>
+    <t>部门长且对A部门有评分权限，D登陆</t>
+  </si>
+  <si>
+    <t>D进入【标记】模块</t>
+  </si>
+  <si>
+    <t>校验部门长相互独立qid标记互不影响</t>
+  </si>
+  <si>
+    <t>SX013</t>
+  </si>
+  <si>
+    <t>C进入【调整】模块</t>
+  </si>
+  <si>
+    <t>C将问题调整为【紧急、重要、不可做】</t>
+  </si>
+  <si>
+    <t>验证问题qGrade=0</t>
+  </si>
+  <si>
+    <t>SX014</t>
+  </si>
+  <si>
+    <t>C将问题调整为【紧急、重要、可做】</t>
+  </si>
+  <si>
+    <t>验证问题qGrade=1</t>
+  </si>
+  <si>
+    <t>SX015</t>
+  </si>
+  <si>
+    <t>提交筛选结果</t>
+  </si>
+  <si>
+    <t>C进入【筛选】模块</t>
+  </si>
+  <si>
+    <t>校验在中间区域无qGrade=0的问题</t>
+  </si>
+  <si>
+    <t>SX016</t>
+  </si>
+  <si>
+    <t>部门长且对A部门有评分权限，A部门C进入【历史筛选】模块</t>
+  </si>
+  <si>
+    <t>默认查询上一月份数据</t>
+  </si>
+  <si>
+    <t>备注：暂时未实现该功能校验</t>
+  </si>
+  <si>
+    <t>SX017</t>
+  </si>
+  <si>
+    <t>部门长且对A部门有评分权限，C登陆</t>
+  </si>
+  <si>
+    <t>C进入标记模块，对问题标记</t>
+  </si>
+  <si>
+    <t>C进入【历史筛选】模块</t>
+  </si>
+  <si>
+    <t>选择当前月份查询结果</t>
+  </si>
+  <si>
+    <t>校验，当前时间戳在开始/结束时间之内且未提交，不下发</t>
+  </si>
+  <si>
+    <t>SX018</t>
+  </si>
+  <si>
+    <t>发布问题2审核成功</t>
+  </si>
+  <si>
+    <t>C进入标记模块，对问题1.2标记1.2级</t>
+  </si>
+  <si>
+    <t>选中问题1，提交筛选结果</t>
+  </si>
+  <si>
+    <t>校验，已选中问题与已标记未选中</t>
+  </si>
+  <si>
+    <t>SX019</t>
+  </si>
+  <si>
+    <t>C进入【标记】模块，对该问题标记【紧急、重要、可做】</t>
+  </si>
+  <si>
+    <t>C选中该问题，提交筛选结果</t>
+  </si>
+  <si>
+    <t>C再次进入【筛选】模块</t>
+  </si>
+  <si>
+    <t>验证权限，无法再次进入</t>
   </si>
   <si>
     <t>模块</t>
@@ -1030,12 +1243,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1054,18 +1261,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1073,12 +1268,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,37 +1297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,12 +1327,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1180,19 +1339,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,7 +1387,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,10 +1671,10 @@
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1470,137 +1683,137 @@
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1739,8 +1952,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1750,6 +1975,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2247,68 +2481,68 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="23" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="50" customWidth="1"/>
-    <col min="2" max="2" width="23.6666666666667" style="50" customWidth="1"/>
-    <col min="3" max="3" width="82.8333333333333" style="50" customWidth="1"/>
-    <col min="4" max="4" width="10.8333333333333" style="50"/>
-    <col min="5" max="5" width="22.3333333333333" style="50" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="50"/>
+    <col min="1" max="1" width="12.5" style="57" customWidth="1"/>
+    <col min="2" max="2" width="23.6666666666667" style="57" customWidth="1"/>
+    <col min="3" max="3" width="82.8333333333333" style="57" customWidth="1"/>
+    <col min="4" max="4" width="10.8333333333333" style="57"/>
+    <col min="5" max="5" width="22.3333333333333" style="57" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="57"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="56"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="67" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2319,39 +2553,39 @@
       <c r="B6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="68" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="69"/>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="70" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="64"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="65"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="28" t="s">
@@ -2360,90 +2594,90 @@
       <c r="B9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="68" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="62"/>
+      <c r="E9" s="69"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-    </row>
-    <row r="12" s="50" customFormat="1" customHeight="1" spans="1:5">
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="78"/>
+    </row>
+    <row r="12" s="57" customFormat="1" customHeight="1" spans="1:5">
       <c r="A12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
-    </row>
-    <row r="13" s="50" customFormat="1" customHeight="1" spans="1:5">
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+    </row>
+    <row r="13" s="57" customFormat="1" customHeight="1" spans="1:5">
       <c r="A13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="81"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="77"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" ht="43" customHeight="1" spans="1:5">
       <c r="A17" s="28">
@@ -2451,15 +2685,15 @@
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
     </row>
     <row r="18" ht="35" customHeight="1" spans="1:5">
       <c r="A18" s="28">
         <v>2</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
@@ -2491,14 +2725,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E72" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomRight" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
@@ -2590,7 +2824,7 @@
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
-      <c r="J2" s="47"/>
+      <c r="J2" s="51"/>
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
@@ -2758,7 +2992,7 @@
       <c r="H7" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="52" t="s">
         <v>79</v>
       </c>
       <c r="J7" s="36" t="s">
@@ -2770,8 +3004,8 @@
       <c r="L7" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:12">
       <c r="A8" s="24" t="s">
@@ -2792,16 +3026,16 @@
       <c r="H8" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="52" t="s">
         <v>84</v>
       </c>
       <c r="K8" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="48"/>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" ht="53" customHeight="1" spans="1:15">
       <c r="A9" s="24" t="s">
@@ -2822,13 +3056,13 @@
       <c r="H9" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="52" t="s">
         <v>79</v>
       </c>
       <c r="J9" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="48" t="s">
+      <c r="K9" s="52" t="s">
         <v>86</v>
       </c>
       <c r="L9" s="36" t="s">
@@ -2863,13 +3097,13 @@
       <c r="H10" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="52" t="s">
         <v>79</v>
       </c>
       <c r="J10" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="48" t="s">
+      <c r="K10" s="52" t="s">
         <v>86</v>
       </c>
       <c r="L10" s="36" t="s">
@@ -2904,13 +3138,13 @@
       <c r="H11" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="52" t="s">
         <v>79</v>
       </c>
       <c r="J11" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="48" t="s">
+      <c r="K11" s="52" t="s">
         <v>81</v>
       </c>
       <c r="L11" s="36" t="s">
@@ -2950,13 +3184,13 @@
       <c r="K12" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="L12" s="48" t="s">
+      <c r="L12" s="52" t="s">
         <v>100</v>
       </c>
       <c r="M12" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="48"/>
+      <c r="N12" s="52"/>
     </row>
     <row r="13" ht="58" customHeight="1" spans="1:13">
       <c r="A13" s="24" t="s">
@@ -2986,7 +3220,7 @@
       <c r="K13" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="L13" s="48" t="s">
+      <c r="L13" s="52" t="s">
         <v>104</v>
       </c>
       <c r="M13" s="36" t="s">
@@ -3021,7 +3255,7 @@
       <c r="K14" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="48" t="s">
+      <c r="L14" s="52" t="s">
         <v>107</v>
       </c>
       <c r="M14" s="36" t="s">
@@ -3056,7 +3290,7 @@
       <c r="K15" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="48" t="s">
+      <c r="L15" s="52" t="s">
         <v>110</v>
       </c>
       <c r="M15" s="36" t="s">
@@ -3101,8 +3335,8 @@
       <c r="M16" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
     </row>
     <row r="17" ht="78" customHeight="1" spans="1:14">
       <c r="A17" s="24" t="s">
@@ -3129,13 +3363,13 @@
       <c r="J17" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="49" t="s">
+      <c r="K17" s="53" t="s">
         <v>118</v>
       </c>
       <c r="L17" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="M17" s="49" t="s">
+      <c r="M17" s="53" t="s">
         <v>116</v>
       </c>
       <c r="N17" s="34" t="s">
@@ -3167,19 +3401,19 @@
       <c r="J18" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="49" t="s">
+      <c r="K18" s="53" t="s">
         <v>131</v>
       </c>
       <c r="L18" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="M18" s="49" t="s">
+      <c r="M18" s="53" t="s">
         <v>126</v>
       </c>
       <c r="N18" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="O18" s="49"/>
+      <c r="O18" s="53"/>
     </row>
     <row r="19" ht="78" customHeight="1" spans="1:15">
       <c r="A19" s="24" t="s">
@@ -3206,19 +3440,19 @@
       <c r="J19" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="K19" s="53" t="s">
         <v>131</v>
       </c>
       <c r="L19" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="M19" s="49" t="s">
+      <c r="M19" s="53" t="s">
         <v>126</v>
       </c>
       <c r="N19" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="O19" s="49"/>
+      <c r="O19" s="53"/>
     </row>
     <row r="20" ht="78" customHeight="1" spans="1:16">
       <c r="A20" s="24" t="s">
@@ -3245,20 +3479,20 @@
       <c r="J20" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="49" t="s">
+      <c r="K20" s="53" t="s">
         <v>118</v>
       </c>
       <c r="L20" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="M20" s="49" t="s">
+      <c r="M20" s="53" t="s">
         <v>116</v>
       </c>
       <c r="N20" s="34" t="s">
         <v>134</v>
       </c>
       <c r="O20" s="34"/>
-      <c r="P20" s="49"/>
+      <c r="P20" s="53"/>
     </row>
     <row r="21" ht="78" customHeight="1" spans="1:14">
       <c r="A21" s="24" t="s">
@@ -3294,7 +3528,7 @@
         <v>139</v>
       </c>
       <c r="M21" s="36"/>
-      <c r="N21" s="48"/>
+      <c r="N21" s="52"/>
     </row>
     <row r="22" ht="78" customHeight="1" spans="1:14">
       <c r="A22" s="24" t="s">
@@ -3324,13 +3558,13 @@
       <c r="K22" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="L22" s="48" t="s">
+      <c r="L22" s="52" t="s">
         <v>138</v>
       </c>
       <c r="M22" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N22" s="48"/>
+      <c r="N22" s="52"/>
     </row>
     <row r="23" ht="78" customHeight="1" spans="1:14">
       <c r="A23" s="24" t="s">
@@ -3360,13 +3594,13 @@
       <c r="K23" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="L23" s="48" t="s">
+      <c r="L23" s="52" t="s">
         <v>142</v>
       </c>
       <c r="M23" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="N23" s="48"/>
+      <c r="N23" s="52"/>
     </row>
     <row r="24" ht="78" customHeight="1" spans="1:14">
       <c r="A24" s="24" t="s">
@@ -3396,13 +3630,13 @@
       <c r="K24" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="48" t="s">
+      <c r="L24" s="52" t="s">
         <v>142</v>
       </c>
       <c r="M24" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="N24" s="48"/>
+      <c r="N24" s="52"/>
     </row>
     <row r="25" ht="78" customHeight="1" spans="1:15">
       <c r="A25" s="24" t="s">
@@ -3429,19 +3663,19 @@
       <c r="J25" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="48" t="s">
+      <c r="K25" s="52" t="s">
         <v>118</v>
       </c>
       <c r="L25" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="M25" s="48" t="s">
+      <c r="M25" s="52" t="s">
         <v>138</v>
       </c>
       <c r="N25" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="O25" s="49"/>
+      <c r="O25" s="53"/>
     </row>
     <row r="26" ht="78" customHeight="1" spans="1:15">
       <c r="A26" s="24" t="s">
@@ -3511,7 +3745,7 @@
       <c r="J27" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="K27" s="49" t="s">
+      <c r="K27" s="53" t="s">
         <v>118</v>
       </c>
       <c r="L27" s="34" t="s">
@@ -3529,7 +3763,7 @@
       <c r="P27" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="Q27" s="49"/>
+      <c r="Q27" s="53"/>
     </row>
     <row r="28" ht="78" customHeight="1" spans="1:17">
       <c r="A28" s="24" t="s">
@@ -3556,7 +3790,7 @@
       <c r="J28" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="K28" s="49" t="s">
+      <c r="K28" s="53" t="s">
         <v>131</v>
       </c>
       <c r="L28" s="34" t="s">
@@ -3574,7 +3808,7 @@
       <c r="P28" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="Q28" s="49"/>
+      <c r="Q28" s="53"/>
     </row>
     <row r="29" ht="78" customHeight="1" spans="1:17">
       <c r="A29" s="24" t="s">
@@ -3601,7 +3835,7 @@
       <c r="J29" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="49" t="s">
+      <c r="K29" s="53" t="s">
         <v>131</v>
       </c>
       <c r="L29" s="34" t="s">
@@ -3619,7 +3853,7 @@
       <c r="P29" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="Q29" s="49"/>
+      <c r="Q29" s="53"/>
     </row>
     <row r="30" ht="78" customHeight="1" spans="1:17">
       <c r="A30" s="24" t="s">
@@ -3646,7 +3880,7 @@
       <c r="J30" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="K30" s="49" t="s">
+      <c r="K30" s="53" t="s">
         <v>118</v>
       </c>
       <c r="L30" s="34" t="s">
@@ -3664,7 +3898,7 @@
       <c r="P30" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="Q30" s="49"/>
+      <c r="Q30" s="53"/>
     </row>
     <row r="31" ht="78" customHeight="1" spans="1:16">
       <c r="A31" s="24" t="s">
@@ -3699,10 +3933,10 @@
       <c r="L31" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="M31" s="48"/>
+      <c r="M31" s="52"/>
       <c r="N31" s="34"/>
       <c r="O31" s="34"/>
-      <c r="P31" s="49"/>
+      <c r="P31" s="53"/>
     </row>
     <row r="32" ht="78" customHeight="1" spans="1:16">
       <c r="A32" s="24" t="s">
@@ -3726,13 +3960,13 @@
       <c r="I32" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="J32" s="48" t="s">
+      <c r="J32" s="52" t="s">
         <v>118</v>
       </c>
       <c r="K32" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="L32" s="48" t="s">
+      <c r="L32" s="52" t="s">
         <v>116</v>
       </c>
       <c r="M32" s="36" t="s">
@@ -3740,7 +3974,7 @@
       </c>
       <c r="N32" s="34"/>
       <c r="O32" s="34"/>
-      <c r="P32" s="49"/>
+      <c r="P32" s="53"/>
     </row>
     <row r="33" ht="78" customHeight="1" spans="1:17">
       <c r="A33" s="24" t="s">
@@ -3767,13 +4001,13 @@
       <c r="J33" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="K33" s="48" t="s">
+      <c r="K33" s="52" t="s">
         <v>131</v>
       </c>
       <c r="L33" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="M33" s="48" t="s">
+      <c r="M33" s="52" t="s">
         <v>116</v>
       </c>
       <c r="N33" s="36" t="s">
@@ -3781,7 +4015,7 @@
       </c>
       <c r="O33" s="34"/>
       <c r="P33" s="34"/>
-      <c r="Q33" s="49"/>
+      <c r="Q33" s="53"/>
     </row>
     <row r="34" ht="78" customHeight="1" spans="1:17">
       <c r="A34" s="24" t="s">
@@ -3808,13 +4042,13 @@
       <c r="J34" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="K34" s="48" t="s">
+      <c r="K34" s="52" t="s">
         <v>131</v>
       </c>
       <c r="L34" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M34" s="48" t="s">
+      <c r="M34" s="52" t="s">
         <v>126</v>
       </c>
       <c r="N34" s="36" t="s">
@@ -3822,7 +4056,7 @@
       </c>
       <c r="O34" s="34"/>
       <c r="P34" s="34"/>
-      <c r="Q34" s="49"/>
+      <c r="Q34" s="53"/>
     </row>
     <row r="35" ht="78" customHeight="1" spans="1:17">
       <c r="A35" s="24" t="s">
@@ -3849,13 +4083,13 @@
       <c r="J35" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="K35" s="48" t="s">
+      <c r="K35" s="52" t="s">
         <v>118</v>
       </c>
       <c r="L35" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="M35" s="48" t="s">
+      <c r="M35" s="52" t="s">
         <v>116</v>
       </c>
       <c r="N35" s="36" t="s">
@@ -3863,7 +4097,7 @@
       </c>
       <c r="O35" s="34"/>
       <c r="P35" s="34"/>
-      <c r="Q35" s="49"/>
+      <c r="Q35" s="53"/>
     </row>
     <row r="36" ht="78" customHeight="1" spans="1:17">
       <c r="A36" s="24" t="s">
@@ -3890,13 +4124,13 @@
       <c r="J36" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="K36" s="48" t="s">
+      <c r="K36" s="52" t="s">
         <v>131</v>
       </c>
       <c r="L36" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="M36" s="48" t="s">
+      <c r="M36" s="52" t="s">
         <v>126</v>
       </c>
       <c r="N36" s="36" t="s">
@@ -3904,7 +4138,7 @@
       </c>
       <c r="O36" s="34"/>
       <c r="P36" s="34"/>
-      <c r="Q36" s="49"/>
+      <c r="Q36" s="53"/>
     </row>
     <row r="37" ht="68" customHeight="1" spans="1:16">
       <c r="A37" s="24" t="s">
@@ -3936,11 +4170,11 @@
       <c r="K37" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="L37" s="49"/>
+      <c r="L37" s="53"/>
       <c r="M37" s="34"/>
       <c r="N37" s="34"/>
       <c r="O37" s="34"/>
-      <c r="P37" s="49"/>
+      <c r="P37" s="53"/>
     </row>
     <row r="38" ht="78" customHeight="1" spans="1:16">
       <c r="A38" s="24" t="s">
@@ -3967,7 +4201,7 @@
       <c r="J38" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="K38" s="49" t="s">
+      <c r="K38" s="53" t="s">
         <v>138</v>
       </c>
       <c r="L38" s="34" t="s">
@@ -3976,7 +4210,7 @@
       <c r="M38" s="34"/>
       <c r="N38" s="34"/>
       <c r="O38" s="34"/>
-      <c r="P38" s="49"/>
+      <c r="P38" s="53"/>
     </row>
     <row r="39" ht="78" customHeight="1" spans="1:16">
       <c r="A39" s="24" t="s">
@@ -4006,7 +4240,7 @@
       <c r="K39" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="L39" s="49" t="s">
+      <c r="L39" s="53" t="s">
         <v>138</v>
       </c>
       <c r="M39" s="34" t="s">
@@ -4014,7 +4248,7 @@
       </c>
       <c r="N39" s="34"/>
       <c r="O39" s="34"/>
-      <c r="P39" s="49"/>
+      <c r="P39" s="53"/>
     </row>
     <row r="40" ht="78" customHeight="1" spans="1:16">
       <c r="A40" s="24" t="s">
@@ -4044,7 +4278,7 @@
       <c r="K40" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="L40" s="49" t="s">
+      <c r="L40" s="53" t="s">
         <v>142</v>
       </c>
       <c r="M40" s="34" t="s">
@@ -4052,7 +4286,7 @@
       </c>
       <c r="N40" s="34"/>
       <c r="O40" s="34"/>
-      <c r="P40" s="49"/>
+      <c r="P40" s="53"/>
     </row>
     <row r="41" ht="78" customHeight="1" spans="1:16">
       <c r="A41" s="24" t="s">
@@ -4082,7 +4316,7 @@
       <c r="K41" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="L41" s="49" t="s">
+      <c r="L41" s="53" t="s">
         <v>138</v>
       </c>
       <c r="M41" s="34" t="s">
@@ -4090,7 +4324,7 @@
       </c>
       <c r="N41" s="34"/>
       <c r="O41" s="34"/>
-      <c r="P41" s="49"/>
+      <c r="P41" s="53"/>
     </row>
     <row r="42" ht="78" customHeight="1" spans="1:16">
       <c r="A42" s="24" t="s">
@@ -4120,7 +4354,7 @@
       <c r="K42" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="L42" s="49" t="s">
+      <c r="L42" s="53" t="s">
         <v>142</v>
       </c>
       <c r="M42" s="34" t="s">
@@ -4128,7 +4362,7 @@
       </c>
       <c r="N42" s="34"/>
       <c r="O42" s="34"/>
-      <c r="P42" s="49"/>
+      <c r="P42" s="53"/>
     </row>
     <row r="43" ht="78" customHeight="1" spans="1:17">
       <c r="A43" s="24" t="s">
@@ -4160,12 +4394,12 @@
       <c r="K43" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="L43" s="48"/>
+      <c r="L43" s="52"/>
       <c r="M43" s="36"/>
       <c r="N43" s="34"/>
       <c r="O43" s="34"/>
       <c r="P43" s="34"/>
-      <c r="Q43" s="49"/>
+      <c r="Q43" s="53"/>
     </row>
     <row r="44" ht="78" customHeight="1" spans="1:17">
       <c r="A44" s="24" t="s">
@@ -4192,7 +4426,7 @@
       <c r="J44" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="K44" s="48" t="s">
+      <c r="K44" s="52" t="s">
         <v>148</v>
       </c>
       <c r="L44" s="36" t="s">
@@ -4202,7 +4436,7 @@
       <c r="N44" s="34"/>
       <c r="O44" s="34"/>
       <c r="P44" s="34"/>
-      <c r="Q44" s="49"/>
+      <c r="Q44" s="53"/>
     </row>
     <row r="45" ht="78" customHeight="1" spans="1:17">
       <c r="A45" s="24" t="s">
@@ -4232,7 +4466,7 @@
       <c r="K45" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="L45" s="48" t="s">
+      <c r="L45" s="52" t="s">
         <v>148</v>
       </c>
       <c r="M45" s="36" t="s">
@@ -4241,7 +4475,7 @@
       <c r="N45" s="34"/>
       <c r="O45" s="34"/>
       <c r="P45" s="34"/>
-      <c r="Q45" s="49"/>
+      <c r="Q45" s="53"/>
     </row>
     <row r="46" ht="78" customHeight="1" spans="1:17">
       <c r="A46" s="24" t="s">
@@ -4271,7 +4505,7 @@
       <c r="K46" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="L46" s="48" t="s">
+      <c r="L46" s="52" t="s">
         <v>153</v>
       </c>
       <c r="M46" s="36" t="s">
@@ -4280,7 +4514,7 @@
       <c r="N46" s="34"/>
       <c r="O46" s="34"/>
       <c r="P46" s="34"/>
-      <c r="Q46" s="49"/>
+      <c r="Q46" s="53"/>
     </row>
     <row r="47" ht="78" customHeight="1" spans="1:17">
       <c r="A47" s="24" t="s">
@@ -4310,7 +4544,7 @@
       <c r="K47" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="L47" s="48" t="s">
+      <c r="L47" s="52" t="s">
         <v>148</v>
       </c>
       <c r="M47" s="36" t="s">
@@ -4319,7 +4553,7 @@
       <c r="N47" s="34"/>
       <c r="O47" s="34"/>
       <c r="P47" s="34"/>
-      <c r="Q47" s="49"/>
+      <c r="Q47" s="53"/>
     </row>
     <row r="48" ht="78" customHeight="1" spans="1:17">
       <c r="A48" s="24" t="s">
@@ -4349,7 +4583,7 @@
       <c r="K48" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="L48" s="48" t="s">
+      <c r="L48" s="52" t="s">
         <v>153</v>
       </c>
       <c r="M48" s="36" t="s">
@@ -4358,7 +4592,7 @@
       <c r="N48" s="34"/>
       <c r="O48" s="34"/>
       <c r="P48" s="34"/>
-      <c r="Q48" s="49"/>
+      <c r="Q48" s="53"/>
     </row>
     <row r="49" ht="78" customHeight="1" spans="1:15">
       <c r="A49" s="41" t="s">
@@ -4700,13 +4934,13 @@
       <c r="O57" s="36"/>
     </row>
     <row r="58" s="27" customFormat="1" ht="78" customHeight="1" spans="1:9">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="41" t="s">
         <v>227</v>
       </c>
       <c r="B58" s="42"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="34" t="s">
+      <c r="D58" s="44"/>
+      <c r="E58" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F58" s="36" t="s">
@@ -4722,11 +4956,707 @@
         <v>231</v>
       </c>
     </row>
+    <row r="59" ht="52" customHeight="1" spans="1:18">
+      <c r="A59" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" s="28"/>
+      <c r="D59" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="48"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
+    </row>
+    <row r="60" ht="52" customHeight="1" spans="1:18">
+      <c r="A60" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="B60" s="26"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="48"/>
+    </row>
+    <row r="61" ht="52" customHeight="1" spans="1:18">
+      <c r="A61" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" s="26"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="48"/>
+    </row>
+    <row r="62" ht="52" customHeight="1" spans="1:18">
+      <c r="A62" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" s="26"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="48"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
+    </row>
+    <row r="63" ht="52" customHeight="1" spans="1:18">
+      <c r="A63" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="26"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G63" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H63" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="I63" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J63" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="48"/>
+    </row>
+    <row r="64" ht="52" customHeight="1" spans="1:18">
+      <c r="A64" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B64" s="26"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G64" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H64" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="I64" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="J64" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="48"/>
+      <c r="P64" s="48"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="48"/>
+    </row>
+    <row r="65" ht="52" customHeight="1" spans="1:18">
+      <c r="A65" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="B65" s="26"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G65" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H65" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="I65" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="J65" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="48"/>
+    </row>
+    <row r="66" ht="52" customHeight="1" spans="1:18">
+      <c r="A66" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="B66" s="26"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="I66" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J66" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K66" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="48"/>
+      <c r="P66" s="48"/>
+      <c r="Q66" s="48"/>
+      <c r="R66" s="48"/>
+    </row>
+    <row r="67" ht="52" customHeight="1" spans="1:18">
+      <c r="A67" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="B67" s="26"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G67" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H67" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="I67" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J67" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="K67" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="48"/>
+    </row>
+    <row r="68" ht="52" customHeight="1" spans="1:18">
+      <c r="A68" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68" s="26"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G68" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="I68" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J68" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="K68" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="48"/>
+      <c r="Q68" s="48"/>
+      <c r="R68" s="48"/>
+    </row>
+    <row r="69" ht="52" customHeight="1" spans="1:18">
+      <c r="A69" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="B69" s="26"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F69" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="I69" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J69" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="K69" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="48"/>
+      <c r="P69" s="48"/>
+      <c r="Q69" s="48"/>
+      <c r="R69" s="48"/>
+    </row>
+    <row r="70" ht="52" customHeight="1" spans="1:18">
+      <c r="A70" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="B70" s="26"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H70" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="I70" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J70" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K70" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="L70" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M70" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="N70" s="48"/>
+      <c r="O70" s="48"/>
+      <c r="P70" s="48"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="48"/>
+    </row>
+    <row r="71" ht="52" customHeight="1" spans="1:18">
+      <c r="A71" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="B71" s="26"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F71" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G71" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H71" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="I71" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J71" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K71" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="L71" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="M71" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="N71" s="48"/>
+      <c r="O71" s="48"/>
+      <c r="P71" s="48"/>
+      <c r="Q71" s="48"/>
+      <c r="R71" s="48"/>
+    </row>
+    <row r="72" ht="52" customHeight="1" spans="1:18">
+      <c r="A72" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="B72" s="26"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H72" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J72" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="K72" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="L72" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="M72" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="N72" s="48"/>
+      <c r="O72" s="48"/>
+      <c r="P72" s="48"/>
+      <c r="Q72" s="48"/>
+      <c r="R72" s="48"/>
+    </row>
+    <row r="73" ht="52" customHeight="1" spans="1:18">
+      <c r="A73" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" s="26"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="E73" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F73" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G73" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H73" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="I73" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J73" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="K73" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="L73" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="48"/>
+      <c r="R73" s="48"/>
+    </row>
+    <row r="74" ht="52" customHeight="1" spans="1:18">
+      <c r="A74" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="B74" s="26"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F74" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G74" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H74" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="I74" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="J74" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="K74" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="48"/>
+      <c r="R74" s="48"/>
+    </row>
+    <row r="75" ht="52" customHeight="1" spans="1:18">
+      <c r="A75" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="B75" s="26"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F75" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G75" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H75" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="I75" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="J75" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="K75" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="L75" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="M75" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="48"/>
+      <c r="R75" s="48"/>
+    </row>
+    <row r="76" ht="52" customHeight="1" spans="1:18">
+      <c r="A76" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76" s="26"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F76" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G76" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H76" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="I76" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="J76" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="K76" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="L76" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="M76" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="N76" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="O76" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="P76" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q76" s="48"/>
+      <c r="R76" s="48"/>
+    </row>
+    <row r="77" ht="52" customHeight="1" spans="1:18">
+      <c r="A77" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77" s="26"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F77" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G77" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H77" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="I77" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="J77" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="K77" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="L77" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="M77" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="N77" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="48"/>
+      <c r="R77" s="48"/>
+    </row>
+    <row r="78" ht="52" customHeight="1"/>
+    <row r="79" ht="52" customHeight="1"/>
+    <row r="80" ht="52" customHeight="1"/>
+    <row r="81" ht="52" customHeight="1"/>
+    <row r="82" ht="52" customHeight="1"/>
+    <row r="83" ht="52" customHeight="1"/>
+    <row r="84" ht="52" customHeight="1"/>
+    <row r="85" ht="52" customHeight="1"/>
+    <row r="86" ht="52" customHeight="1"/>
+    <row r="87" ht="52" customHeight="1"/>
+    <row r="88" ht="52" customHeight="1"/>
+    <row r="89" ht="52" customHeight="1"/>
+    <row r="90" ht="52" customHeight="1"/>
+    <row r="91" ht="52" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:T57">
+  <autoFilter ref="A1:T58">
     <extLst/>
   </autoFilter>
-  <mergeCells count="14">
+  <mergeCells count="18">
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="C7:C15"/>
@@ -4741,6 +5671,10 @@
     <mergeCell ref="D43:D48"/>
     <mergeCell ref="D49:D53"/>
     <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D72"/>
+    <mergeCell ref="D73:D77"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="0" priority="99" operator="equal">
@@ -4898,10 +5832,10 @@
         <v>35</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>232</v>
+        <v>303</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -4918,25 +5852,25 @@
         <v>35</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>234</v>
+        <v>305</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>238</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="35" customHeight="1" spans="1:10">
@@ -4944,14 +5878,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -4979,11 +5913,11 @@
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
-        <v>242</v>
+        <v>313</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="19" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="13"/>
@@ -4996,12 +5930,12 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="19" t="s">
-        <v>244</v>
+        <v>315</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
@@ -5015,7 +5949,7 @@
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
       <c r="E7" s="12" t="s">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
